--- a/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.006584046742081</v>
+      </c>
+      <c r="D2">
+        <v>1.024865746728539</v>
+      </c>
+      <c r="E2">
+        <v>1.014715789426307</v>
+      </c>
+      <c r="F2">
+        <v>1.028915217357675</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.043771788302547</v>
+      </c>
+      <c r="J2">
+        <v>1.028569597764841</v>
+      </c>
+      <c r="K2">
+        <v>1.03598919950041</v>
+      </c>
+      <c r="L2">
+        <v>1.025973847252181</v>
+      </c>
+      <c r="M2">
+        <v>1.039985895328611</v>
+      </c>
+      <c r="N2">
+        <v>1.030030284572248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.018991646495391</v>
+      </c>
+      <c r="D3">
+        <v>1.034760397577013</v>
+      </c>
+      <c r="E3">
+        <v>1.026583594309739</v>
+      </c>
+      <c r="F3">
+        <v>1.039431381453819</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.047953930003285</v>
+      </c>
+      <c r="J3">
+        <v>1.038977636844123</v>
+      </c>
+      <c r="K3">
+        <v>1.044967022390862</v>
+      </c>
+      <c r="L3">
+        <v>1.036887266930292</v>
+      </c>
+      <c r="M3">
+        <v>1.049583415198995</v>
+      </c>
+      <c r="N3">
+        <v>1.040453104260843</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.026650282389885</v>
+      </c>
+      <c r="D4">
+        <v>1.040869596145793</v>
+      </c>
+      <c r="E4">
+        <v>1.033915815046608</v>
+      </c>
+      <c r="F4">
+        <v>1.04592886599103</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.050518043579362</v>
+      </c>
+      <c r="J4">
+        <v>1.045395994544613</v>
+      </c>
+      <c r="K4">
+        <v>1.05049856803581</v>
+      </c>
+      <c r="L4">
+        <v>1.043621438124111</v>
+      </c>
+      <c r="M4">
+        <v>1.055502855380703</v>
+      </c>
+      <c r="N4">
+        <v>1.046880576765463</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.029789257531492</v>
+      </c>
+      <c r="D5">
+        <v>1.043373666149276</v>
+      </c>
+      <c r="E5">
+        <v>1.036922486710357</v>
+      </c>
+      <c r="F5">
+        <v>1.048593176140256</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.051564660431856</v>
+      </c>
+      <c r="J5">
+        <v>1.048025050107664</v>
+      </c>
+      <c r="K5">
+        <v>1.05276314194869</v>
+      </c>
+      <c r="L5">
+        <v>1.046380856765631</v>
+      </c>
+      <c r="M5">
+        <v>1.057927669329245</v>
+      </c>
+      <c r="N5">
+        <v>1.04951336588897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.030311779391378</v>
+      </c>
+      <c r="D6">
+        <v>1.04379050195023</v>
+      </c>
+      <c r="E6">
+        <v>1.03742306833321</v>
+      </c>
+      <c r="F6">
+        <v>1.049036749966821</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.051738624914824</v>
+      </c>
+      <c r="J6">
+        <v>1.048462593138223</v>
+      </c>
+      <c r="K6">
+        <v>1.053139951487728</v>
+      </c>
+      <c r="L6">
+        <v>1.046840154618819</v>
+      </c>
+      <c r="M6">
+        <v>1.058331225913565</v>
+      </c>
+      <c r="N6">
+        <v>1.049951530280819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.026692533153896</v>
+      </c>
+      <c r="D7">
+        <v>1.040903300781072</v>
+      </c>
+      <c r="E7">
+        <v>1.033956279294276</v>
+      </c>
+      <c r="F7">
+        <v>1.045964723135059</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.0505321484149</v>
+      </c>
+      <c r="J7">
+        <v>1.045431388189858</v>
+      </c>
+      <c r="K7">
+        <v>1.050529059821791</v>
+      </c>
+      <c r="L7">
+        <v>1.043658582800644</v>
+      </c>
+      <c r="M7">
+        <v>1.055535499055646</v>
+      </c>
+      <c r="N7">
+        <v>1.046916020673744</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.010858945826898</v>
+      </c>
+      <c r="D8">
+        <v>1.028274305157958</v>
+      </c>
+      <c r="E8">
+        <v>1.018803165008331</v>
+      </c>
+      <c r="F8">
+        <v>1.03253690386072</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.045216295321012</v>
+      </c>
+      <c r="J8">
+        <v>1.032156774864325</v>
+      </c>
+      <c r="K8">
+        <v>1.039084433169577</v>
+      </c>
+      <c r="L8">
+        <v>1.029734319505654</v>
+      </c>
+      <c r="M8">
+        <v>1.043293465717321</v>
+      </c>
+      <c r="N8">
+        <v>1.033622555874669</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9796971601409332</v>
+      </c>
+      <c r="D9">
+        <v>1.003448785497338</v>
+      </c>
+      <c r="E9">
+        <v>0.9890463542090733</v>
+      </c>
+      <c r="F9">
+        <v>1.006179755612423</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.034616848208078</v>
+      </c>
+      <c r="J9">
+        <v>1.005987813418325</v>
+      </c>
+      <c r="K9">
+        <v>1.01648615528526</v>
+      </c>
+      <c r="L9">
+        <v>1.002319682313907</v>
+      </c>
+      <c r="M9">
+        <v>1.019173359999348</v>
+      </c>
+      <c r="N9">
+        <v>1.007416431501794</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9559667130943091</v>
+      </c>
+      <c r="D10">
+        <v>0.9845914718109525</v>
+      </c>
+      <c r="E10">
+        <v>0.9664471240255555</v>
+      </c>
+      <c r="F10">
+        <v>0.9861864980133014</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.026465549464665</v>
+      </c>
+      <c r="J10">
+        <v>0.9860432656423652</v>
+      </c>
+      <c r="K10">
+        <v>0.9992446189060907</v>
+      </c>
+      <c r="L10">
+        <v>0.9814498158422543</v>
+      </c>
+      <c r="M10">
+        <v>1.000809720345387</v>
+      </c>
+      <c r="N10">
+        <v>0.9874435601803206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.944749310932515</v>
+      </c>
+      <c r="D11">
+        <v>0.9756975823772441</v>
+      </c>
+      <c r="E11">
+        <v>0.9557839325439502</v>
+      </c>
+      <c r="F11">
+        <v>0.9767636227439705</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.022598314856207</v>
+      </c>
+      <c r="J11">
+        <v>0.9766159844733002</v>
+      </c>
+      <c r="K11">
+        <v>0.9910928353058979</v>
+      </c>
+      <c r="L11">
+        <v>0.9715908161037163</v>
+      </c>
+      <c r="M11">
+        <v>0.9921374624793746</v>
+      </c>
+      <c r="N11">
+        <v>0.9780028911906715</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9404128475281601</v>
+      </c>
+      <c r="D12">
+        <v>0.9722633253958198</v>
+      </c>
+      <c r="E12">
+        <v>0.9516651967810222</v>
+      </c>
+      <c r="F12">
+        <v>0.973126147247825</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.0211017427373</v>
+      </c>
+      <c r="J12">
+        <v>0.9729721423662774</v>
+      </c>
+      <c r="K12">
+        <v>0.9879419331310757</v>
+      </c>
+      <c r="L12">
+        <v>0.967780943045639</v>
+      </c>
+      <c r="M12">
+        <v>0.9887869767887054</v>
+      </c>
+      <c r="N12">
+        <v>0.9743538744099021</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9413512689122667</v>
+      </c>
+      <c r="D13">
+        <v>0.9730063099108442</v>
+      </c>
+      <c r="E13">
+        <v>0.9525563344672094</v>
+      </c>
+      <c r="F13">
+        <v>0.973913049723645</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.021425664377442</v>
+      </c>
+      <c r="J13">
+        <v>0.9737606424854445</v>
+      </c>
+      <c r="K13">
+        <v>0.9886237628834225</v>
+      </c>
+      <c r="L13">
+        <v>0.9686053336170828</v>
+      </c>
+      <c r="M13">
+        <v>0.9895119214824795</v>
+      </c>
+      <c r="N13">
+        <v>0.9751434942896811</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9443945167239407</v>
+      </c>
+      <c r="D14">
+        <v>0.9754165170314659</v>
+      </c>
+      <c r="E14">
+        <v>0.9554468783376598</v>
+      </c>
+      <c r="F14">
+        <v>0.9764659044970684</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.022475898324022</v>
+      </c>
+      <c r="J14">
+        <v>0.9763178427904174</v>
+      </c>
+      <c r="K14">
+        <v>0.9908350259398976</v>
+      </c>
+      <c r="L14">
+        <v>0.9712790728870622</v>
+      </c>
+      <c r="M14">
+        <v>0.9918632903611314</v>
+      </c>
+      <c r="N14">
+        <v>0.9777043261124017</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9462460656535954</v>
+      </c>
+      <c r="D15">
+        <v>0.9768834668721335</v>
+      </c>
+      <c r="E15">
+        <v>0.9572059920427224</v>
+      </c>
+      <c r="F15">
+        <v>0.9780198121296328</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.023114688823126</v>
+      </c>
+      <c r="J15">
+        <v>0.9778737688246186</v>
+      </c>
+      <c r="K15">
+        <v>0.9921804668169304</v>
+      </c>
+      <c r="L15">
+        <v>0.9729060155255981</v>
+      </c>
+      <c r="M15">
+        <v>0.9932941890361446</v>
+      </c>
+      <c r="N15">
+        <v>0.9792624617400384</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9566890997336207</v>
+      </c>
+      <c r="D16">
+        <v>0.9851647073073736</v>
+      </c>
+      <c r="E16">
+        <v>0.9671342579934461</v>
+      </c>
+      <c r="F16">
+        <v>0.9867939676008899</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.026714350894319</v>
+      </c>
+      <c r="J16">
+        <v>0.9866504204128788</v>
+      </c>
+      <c r="K16">
+        <v>0.9997696025399978</v>
+      </c>
+      <c r="L16">
+        <v>0.9820848889284713</v>
+      </c>
+      <c r="M16">
+        <v>1.001368433682494</v>
+      </c>
+      <c r="N16">
+        <v>0.9880515771802503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9629700354245085</v>
+      </c>
+      <c r="D17">
+        <v>0.9901511050237078</v>
+      </c>
+      <c r="E17">
+        <v>0.9731108766384361</v>
+      </c>
+      <c r="F17">
+        <v>0.992078905776941</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.028876101657151</v>
+      </c>
+      <c r="J17">
+        <v>0.9919295520131806</v>
+      </c>
+      <c r="K17">
+        <v>1.00433405324417</v>
+      </c>
+      <c r="L17">
+        <v>0.9876073884838503</v>
+      </c>
+      <c r="M17">
+        <v>1.006227260693805</v>
+      </c>
+      <c r="N17">
+        <v>0.9933382057529491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9665449901389007</v>
+      </c>
+      <c r="D18">
+        <v>0.9929909955949997</v>
+      </c>
+      <c r="E18">
+        <v>0.9765143623227831</v>
+      </c>
+      <c r="F18">
+        <v>0.9950894415224121</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.030105186659965</v>
+      </c>
+      <c r="J18">
+        <v>0.9949343144739908</v>
+      </c>
+      <c r="K18">
+        <v>1.006931820388974</v>
+      </c>
+      <c r="L18">
+        <v>0.9907511885914322</v>
+      </c>
+      <c r="M18">
+        <v>1.008993479392017</v>
+      </c>
+      <c r="N18">
+        <v>0.9963472353211048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9677496580152491</v>
+      </c>
+      <c r="D19">
+        <v>0.9939482393996651</v>
+      </c>
+      <c r="E19">
+        <v>0.9776615311995785</v>
+      </c>
+      <c r="F19">
+        <v>0.9961043090761452</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.030519117158913</v>
+      </c>
+      <c r="J19">
+        <v>0.9959468313597452</v>
+      </c>
+      <c r="K19">
+        <v>1.007807148954561</v>
+      </c>
+      <c r="L19">
+        <v>0.9918106452714717</v>
+      </c>
+      <c r="M19">
+        <v>1.00992572122526</v>
+      </c>
+      <c r="N19">
+        <v>0.9973611900969742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9623054940306836</v>
+      </c>
+      <c r="D20">
+        <v>0.9896233403601175</v>
+      </c>
+      <c r="E20">
+        <v>0.9724783477729629</v>
+      </c>
+      <c r="F20">
+        <v>0.9915194786582553</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.028647517602532</v>
+      </c>
+      <c r="J20">
+        <v>0.9913710002741937</v>
+      </c>
+      <c r="K20">
+        <v>1.003851138294895</v>
+      </c>
+      <c r="L20">
+        <v>0.9870230334909614</v>
+      </c>
+      <c r="M20">
+        <v>1.005713105137978</v>
+      </c>
+      <c r="N20">
+        <v>0.9927788608064261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9435033150140391</v>
+      </c>
+      <c r="D21">
+        <v>0.9747105809463867</v>
+      </c>
+      <c r="E21">
+        <v>0.9546002952030047</v>
+      </c>
+      <c r="F21">
+        <v>0.9757181590203915</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.022168379427802</v>
+      </c>
+      <c r="J21">
+        <v>0.9755689570495352</v>
+      </c>
+      <c r="K21">
+        <v>0.9901874486600634</v>
+      </c>
+      <c r="L21">
+        <v>0.9704960355364124</v>
+      </c>
+      <c r="M21">
+        <v>0.9911746382039491</v>
+      </c>
+      <c r="N21">
+        <v>0.9769543768678692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.930677893470665</v>
+      </c>
+      <c r="D22">
+        <v>0.9645624985787391</v>
+      </c>
+      <c r="E22">
+        <v>0.9424262707899307</v>
+      </c>
+      <c r="F22">
+        <v>0.9649716088969136</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.017739937017944</v>
+      </c>
+      <c r="J22">
+        <v>0.9647938757334455</v>
+      </c>
+      <c r="K22">
+        <v>0.9808702562855071</v>
+      </c>
+      <c r="L22">
+        <v>0.9592315766869045</v>
+      </c>
+      <c r="M22">
+        <v>0.9812704564289306</v>
+      </c>
+      <c r="N22">
+        <v>0.9661639937003912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9375839830270101</v>
+      </c>
+      <c r="D23">
+        <v>0.9700242779707016</v>
+      </c>
+      <c r="E23">
+        <v>0.9489794305643342</v>
+      </c>
+      <c r="F23">
+        <v>0.9707549045372323</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.020125106073223</v>
+      </c>
+      <c r="J23">
+        <v>0.970595349324278</v>
+      </c>
+      <c r="K23">
+        <v>0.9858866931115432</v>
+      </c>
+      <c r="L23">
+        <v>0.9652960861791274</v>
+      </c>
+      <c r="M23">
+        <v>0.9866020171559085</v>
+      </c>
+      <c r="N23">
+        <v>0.9719737060491612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9626060434673747</v>
+      </c>
+      <c r="D24">
+        <v>0.9898620249285558</v>
+      </c>
+      <c r="E24">
+        <v>0.9727644136371347</v>
+      </c>
+      <c r="F24">
+        <v>0.9917724808242568</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.028750902576876</v>
+      </c>
+      <c r="J24">
+        <v>0.9916236142040121</v>
+      </c>
+      <c r="K24">
+        <v>1.004069544969787</v>
+      </c>
+      <c r="L24">
+        <v>0.9872873157354635</v>
+      </c>
+      <c r="M24">
+        <v>1.005945638075054</v>
+      </c>
+      <c r="N24">
+        <v>0.9930318334769999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9882079044578775</v>
+      </c>
+      <c r="D25">
+        <v>1.010223302360175</v>
+      </c>
+      <c r="E25">
+        <v>0.9971645262526371</v>
+      </c>
+      <c r="F25">
+        <v>1.013367751705012</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.037526086109565</v>
+      </c>
+      <c r="J25">
+        <v>1.013138742550587</v>
+      </c>
+      <c r="K25">
+        <v>1.022664960934861</v>
+      </c>
+      <c r="L25">
+        <v>1.009807019350977</v>
+      </c>
+      <c r="M25">
+        <v>1.025762035182143</v>
+      </c>
+      <c r="N25">
+        <v>1.014577515773647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006584046742081</v>
+        <v>1.067724699467324</v>
       </c>
       <c r="D2">
-        <v>1.024865746728539</v>
+        <v>1.078061825022049</v>
       </c>
       <c r="E2">
-        <v>1.014715789426307</v>
+        <v>1.084299037755295</v>
       </c>
       <c r="F2">
-        <v>1.028915217357675</v>
+        <v>1.088652432372133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043771788302547</v>
+        <v>1.073145742488464</v>
       </c>
       <c r="J2">
-        <v>1.028569597764841</v>
+        <v>1.088052638735069</v>
       </c>
       <c r="K2">
-        <v>1.03598919950041</v>
+        <v>1.088531090633659</v>
       </c>
       <c r="L2">
-        <v>1.025973847252181</v>
+        <v>1.094696790060047</v>
       </c>
       <c r="M2">
-        <v>1.039985895328611</v>
+        <v>1.099000868794918</v>
       </c>
       <c r="N2">
-        <v>1.030030284572248</v>
+        <v>1.089597798283455</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018991646495391</v>
+        <v>1.075561117424424</v>
       </c>
       <c r="D3">
-        <v>1.034760397577013</v>
+        <v>1.084555501196375</v>
       </c>
       <c r="E3">
-        <v>1.026583594309739</v>
+        <v>1.091700753414533</v>
       </c>
       <c r="F3">
-        <v>1.039431381453819</v>
+        <v>1.09602487243357</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047953930003285</v>
+        <v>1.07640668672044</v>
       </c>
       <c r="J3">
-        <v>1.038977636844123</v>
+        <v>1.09418432180747</v>
       </c>
       <c r="K3">
-        <v>1.044967022390862</v>
+        <v>1.094209783525827</v>
       </c>
       <c r="L3">
-        <v>1.036887266930292</v>
+        <v>1.101280825415213</v>
       </c>
       <c r="M3">
-        <v>1.049583415198995</v>
+        <v>1.105560607043282</v>
       </c>
       <c r="N3">
-        <v>1.040453104260843</v>
+        <v>1.095738189049133</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026650282389885</v>
+        <v>1.080482425584733</v>
       </c>
       <c r="D4">
-        <v>1.040869596145793</v>
+        <v>1.088635101991998</v>
       </c>
       <c r="E4">
-        <v>1.033915815046608</v>
+        <v>1.096353805543437</v>
       </c>
       <c r="F4">
-        <v>1.04592886599103</v>
+        <v>1.10065992738182</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050518043579362</v>
+        <v>1.078442284778823</v>
       </c>
       <c r="J4">
-        <v>1.045395994544613</v>
+        <v>1.098029661823863</v>
       </c>
       <c r="K4">
-        <v>1.05049856803581</v>
+        <v>1.097769710192567</v>
       </c>
       <c r="L4">
-        <v>1.043621438124111</v>
+        <v>1.105413426540759</v>
       </c>
       <c r="M4">
-        <v>1.055502855380703</v>
+        <v>1.109678267334256</v>
       </c>
       <c r="N4">
-        <v>1.046880576765463</v>
+        <v>1.099588989889415</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029789257531492</v>
+        <v>1.082517586169744</v>
       </c>
       <c r="D5">
-        <v>1.043373666149276</v>
+        <v>1.090322473221912</v>
       </c>
       <c r="E5">
-        <v>1.036922486710357</v>
+        <v>1.098279109195135</v>
       </c>
       <c r="F5">
-        <v>1.048593176140256</v>
+        <v>1.102577875558738</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051564660431856</v>
+        <v>1.079281083428489</v>
       </c>
       <c r="J5">
-        <v>1.048025050107664</v>
+        <v>1.099618523747896</v>
       </c>
       <c r="K5">
-        <v>1.05276314194869</v>
+        <v>1.099240308533396</v>
       </c>
       <c r="L5">
-        <v>1.046380856765631</v>
+        <v>1.107121841128837</v>
       </c>
       <c r="M5">
-        <v>1.057927669329245</v>
+        <v>1.111380574993913</v>
       </c>
       <c r="N5">
-        <v>1.04951336588897</v>
+        <v>1.101180108179626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030311779391378</v>
+        <v>1.082857374219298</v>
       </c>
       <c r="D6">
-        <v>1.04379050195023</v>
+        <v>1.090604209670827</v>
       </c>
       <c r="E6">
-        <v>1.03742306833321</v>
+        <v>1.098600617403917</v>
       </c>
       <c r="F6">
-        <v>1.049036749966821</v>
+        <v>1.1028981606612</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051738624914824</v>
+        <v>1.07942095008396</v>
       </c>
       <c r="J6">
-        <v>1.048462593138223</v>
+        <v>1.099883717965655</v>
       </c>
       <c r="K6">
-        <v>1.053139951487728</v>
+        <v>1.099485743593205</v>
       </c>
       <c r="L6">
-        <v>1.046840154618819</v>
+        <v>1.107407040199875</v>
       </c>
       <c r="M6">
-        <v>1.058331225913565</v>
+        <v>1.111664758550468</v>
       </c>
       <c r="N6">
-        <v>1.049951530280819</v>
+        <v>1.101445679003593</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026692533153896</v>
+        <v>1.08050974961714</v>
       </c>
       <c r="D7">
-        <v>1.040903300781072</v>
+        <v>1.088657755559779</v>
       </c>
       <c r="E7">
-        <v>1.033956279294276</v>
+        <v>1.0963796504479</v>
       </c>
       <c r="F7">
-        <v>1.045964723135059</v>
+        <v>1.100685673194748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0505321484149</v>
+        <v>1.078453558433923</v>
       </c>
       <c r="J7">
-        <v>1.045431388189858</v>
+        <v>1.098050999233324</v>
       </c>
       <c r="K7">
-        <v>1.050529059821791</v>
+        <v>1.097789460733907</v>
       </c>
       <c r="L7">
-        <v>1.043658582800644</v>
+        <v>1.105436366066252</v>
       </c>
       <c r="M7">
-        <v>1.055535499055646</v>
+        <v>1.109701124590188</v>
       </c>
       <c r="N7">
-        <v>1.046916020673744</v>
+        <v>1.099610357600445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010858945826898</v>
+        <v>1.070405244620186</v>
       </c>
       <c r="D8">
-        <v>1.028274305157958</v>
+        <v>1.080282692914148</v>
       </c>
       <c r="E8">
-        <v>1.018803165008331</v>
+        <v>1.086829849515446</v>
       </c>
       <c r="F8">
-        <v>1.03253690386072</v>
+        <v>1.091173144309691</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045216295321012</v>
+        <v>1.074263748395805</v>
       </c>
       <c r="J8">
-        <v>1.032156774864325</v>
+        <v>1.090151162919157</v>
       </c>
       <c r="K8">
-        <v>1.039084433169577</v>
+        <v>1.090474854676177</v>
       </c>
       <c r="L8">
-        <v>1.029734319505654</v>
+        <v>1.096949372424874</v>
       </c>
       <c r="M8">
-        <v>1.043293465717321</v>
+        <v>1.101245070037293</v>
       </c>
       <c r="N8">
-        <v>1.033622555874669</v>
+        <v>1.091699302612589</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9796971601409332</v>
+        <v>1.051355855313418</v>
       </c>
       <c r="D9">
-        <v>1.003448785497338</v>
+        <v>1.064510317694776</v>
       </c>
       <c r="E9">
-        <v>0.9890463542090733</v>
+        <v>1.068867789493855</v>
       </c>
       <c r="F9">
-        <v>1.006179755612423</v>
+        <v>1.073284816325735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034616848208078</v>
+        <v>1.06626791493569</v>
       </c>
       <c r="J9">
-        <v>1.005987813418325</v>
+        <v>1.0752169088137</v>
       </c>
       <c r="K9">
-        <v>1.01648615528526</v>
+        <v>1.07663681075198</v>
       </c>
       <c r="L9">
-        <v>1.002319682313907</v>
+        <v>1.080934294079635</v>
       </c>
       <c r="M9">
-        <v>1.019173359999348</v>
+        <v>1.085291138019827</v>
       </c>
       <c r="N9">
-        <v>1.007416431501794</v>
+        <v>1.076743840153319</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9559667130943091</v>
+        <v>1.037662235093567</v>
       </c>
       <c r="D10">
-        <v>0.9845914718109525</v>
+        <v>1.053190187486985</v>
       </c>
       <c r="E10">
-        <v>0.9664471240255555</v>
+        <v>1.055989110296665</v>
       </c>
       <c r="F10">
-        <v>0.9861864980133014</v>
+        <v>1.060462006063388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026465549464665</v>
+        <v>1.060458154457149</v>
       </c>
       <c r="J10">
-        <v>0.9860432656423652</v>
+        <v>1.064457349405917</v>
       </c>
       <c r="K10">
-        <v>0.9992446189060907</v>
+        <v>1.066661189542023</v>
       </c>
       <c r="L10">
-        <v>0.9814498158422543</v>
+        <v>1.069416052019098</v>
       </c>
       <c r="M10">
-        <v>1.000809720345387</v>
+        <v>1.073819152889211</v>
       </c>
       <c r="N10">
-        <v>0.9874435601803206</v>
+        <v>1.065969000937038</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.944749310932515</v>
+        <v>1.031455463221422</v>
       </c>
       <c r="D11">
-        <v>0.9756975823772441</v>
+        <v>1.048065132986139</v>
       </c>
       <c r="E11">
-        <v>0.9557839325439502</v>
+        <v>1.050160919656903</v>
       </c>
       <c r="F11">
-        <v>0.9767636227439705</v>
+        <v>1.05465995051389</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022598314856207</v>
+        <v>1.057811176930902</v>
       </c>
       <c r="J11">
-        <v>0.9766159844733002</v>
+        <v>1.059575779226573</v>
       </c>
       <c r="K11">
-        <v>0.9910928353058979</v>
+        <v>1.062134175361011</v>
       </c>
       <c r="L11">
-        <v>0.9715908161037163</v>
+        <v>1.064195061573544</v>
       </c>
       <c r="M11">
-        <v>0.9921374624793746</v>
+        <v>1.068619774034894</v>
       </c>
       <c r="N11">
-        <v>0.9780028911906715</v>
+        <v>1.061080498368115</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9404128475281601</v>
+        <v>1.029104209517666</v>
       </c>
       <c r="D12">
-        <v>0.9722633253958198</v>
+        <v>1.046124706163896</v>
       </c>
       <c r="E12">
-        <v>0.9516651967810222</v>
+        <v>1.047954587172397</v>
       </c>
       <c r="F12">
-        <v>0.973126147247825</v>
+        <v>1.052463653222501</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0211017427373</v>
+        <v>1.056806501322856</v>
       </c>
       <c r="J12">
-        <v>0.9729721423662774</v>
+        <v>1.057725935237099</v>
       </c>
       <c r="K12">
-        <v>0.9879419331310757</v>
+        <v>1.06041854734366</v>
       </c>
       <c r="L12">
-        <v>0.967780943045639</v>
+        <v>1.062217319839741</v>
       </c>
       <c r="M12">
-        <v>0.9887869767887054</v>
+        <v>1.066650325649857</v>
       </c>
       <c r="N12">
-        <v>0.9743538744099021</v>
+        <v>1.059228027387996</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9413512689122667</v>
+        <v>1.029610705386055</v>
       </c>
       <c r="D13">
-        <v>0.9730063099108442</v>
+        <v>1.046542653482869</v>
       </c>
       <c r="E13">
-        <v>0.9525563344672094</v>
+        <v>1.048429794656198</v>
       </c>
       <c r="F13">
-        <v>0.973913049723645</v>
+        <v>1.052936692675691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021425664377442</v>
+        <v>1.057023009754427</v>
       </c>
       <c r="J13">
-        <v>0.9737606424854445</v>
+        <v>1.058124445331038</v>
       </c>
       <c r="K13">
-        <v>0.9886237628834225</v>
+        <v>1.060788149334046</v>
       </c>
       <c r="L13">
-        <v>0.9686053336170828</v>
+        <v>1.062643350096457</v>
       </c>
       <c r="M13">
-        <v>0.9895119214824795</v>
+        <v>1.067074564426124</v>
       </c>
       <c r="N13">
-        <v>0.9751434942896811</v>
+        <v>1.059627103411979</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9443945167239407</v>
+        <v>1.031262067596427</v>
       </c>
       <c r="D14">
-        <v>0.9754165170314659</v>
+        <v>1.047905506464539</v>
       </c>
       <c r="E14">
-        <v>0.9554468783376598</v>
+        <v>1.049979412798518</v>
       </c>
       <c r="F14">
-        <v>0.9764659044970684</v>
+        <v>1.054479266263029</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022475898324022</v>
+        <v>1.057728579023665</v>
       </c>
       <c r="J14">
-        <v>0.9763178427904174</v>
+        <v>1.059423637243747</v>
       </c>
       <c r="K14">
-        <v>0.9908350259398976</v>
+        <v>1.061993074782404</v>
       </c>
       <c r="L14">
-        <v>0.9712790728870622</v>
+        <v>1.064032385839029</v>
       </c>
       <c r="M14">
-        <v>0.9918632903611314</v>
+        <v>1.068457778229962</v>
       </c>
       <c r="N14">
-        <v>0.9777043261124017</v>
+        <v>1.060928140326223</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9462460656535954</v>
+        <v>1.032273327164197</v>
       </c>
       <c r="D15">
-        <v>0.9768834668721335</v>
+        <v>1.048740232131778</v>
       </c>
       <c r="E15">
-        <v>0.9572059920427224</v>
+        <v>1.050928568376323</v>
       </c>
       <c r="F15">
-        <v>0.9780198121296328</v>
+        <v>1.055424126003048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023114688823126</v>
+        <v>1.058160402454698</v>
       </c>
       <c r="J15">
-        <v>0.9778737688246186</v>
+        <v>1.060219158915131</v>
       </c>
       <c r="K15">
-        <v>0.9921804668169304</v>
+        <v>1.062730857471369</v>
       </c>
       <c r="L15">
-        <v>0.9729060155255981</v>
+        <v>1.064883015928749</v>
       </c>
       <c r="M15">
-        <v>0.9932941890361446</v>
+        <v>1.069304857372626</v>
       </c>
       <c r="N15">
-        <v>0.9792624617400384</v>
+        <v>1.061724791729628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9566890997336207</v>
+        <v>1.03806797603849</v>
       </c>
       <c r="D16">
-        <v>0.9851647073073736</v>
+        <v>1.053525351210785</v>
       </c>
       <c r="E16">
-        <v>0.9671342579934461</v>
+        <v>1.056370303521649</v>
       </c>
       <c r="F16">
-        <v>0.9867939676008899</v>
+        <v>1.060841508642008</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026714350894319</v>
+        <v>1.06063091550399</v>
       </c>
       <c r="J16">
-        <v>0.9866504204128788</v>
+        <v>1.064776372168132</v>
       </c>
       <c r="K16">
-        <v>0.9997696025399978</v>
+        <v>1.06695702030138</v>
       </c>
       <c r="L16">
-        <v>0.9820848889284713</v>
+        <v>1.069757356099199</v>
       </c>
       <c r="M16">
-        <v>1.001368433682494</v>
+        <v>1.074159058319532</v>
       </c>
       <c r="N16">
-        <v>0.9880515771802503</v>
+        <v>1.066288476748168</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9629700354245085</v>
+        <v>1.041625817286752</v>
       </c>
       <c r="D17">
-        <v>0.9901511050237078</v>
+        <v>1.056465002083121</v>
       </c>
       <c r="E17">
-        <v>0.9731108766384361</v>
+        <v>1.059713942647585</v>
       </c>
       <c r="F17">
-        <v>0.992078905776941</v>
+        <v>1.064170415812826</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028876101657151</v>
+        <v>1.062144287111327</v>
       </c>
       <c r="J17">
-        <v>0.9919295520131806</v>
+        <v>1.067573285255316</v>
       </c>
       <c r="K17">
-        <v>1.00433405324417</v>
+        <v>1.069550483513645</v>
       </c>
       <c r="L17">
-        <v>0.9876073884838503</v>
+        <v>1.072750152605304</v>
       </c>
       <c r="M17">
-        <v>1.006227260693805</v>
+        <v>1.077139664175095</v>
       </c>
       <c r="N17">
-        <v>0.9933382057529491</v>
+        <v>1.069089361772746</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9665449901389007</v>
+        <v>1.04367459167314</v>
       </c>
       <c r="D18">
-        <v>0.9929909955949997</v>
+        <v>1.058158336256659</v>
       </c>
       <c r="E18">
-        <v>0.9765143623227831</v>
+        <v>1.061640224124936</v>
       </c>
       <c r="F18">
-        <v>0.9950894415224121</v>
+        <v>1.066088289244744</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030105186659965</v>
+        <v>1.063014470488166</v>
       </c>
       <c r="J18">
-        <v>0.9949343144739908</v>
+        <v>1.069183433572962</v>
       </c>
       <c r="K18">
-        <v>1.006931820388974</v>
+        <v>1.07104340193675</v>
       </c>
       <c r="L18">
-        <v>0.9907511885914322</v>
+        <v>1.074473517766569</v>
       </c>
       <c r="M18">
-        <v>1.008993479392017</v>
+        <v>1.078856069268863</v>
       </c>
       <c r="N18">
-        <v>0.9963472353211048</v>
+        <v>1.07070179668569</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9677496580152491</v>
+        <v>1.044368799830826</v>
       </c>
       <c r="D19">
-        <v>0.9939482393996651</v>
+        <v>1.058732194459684</v>
       </c>
       <c r="E19">
-        <v>0.9776615311995785</v>
+        <v>1.062293068265475</v>
       </c>
       <c r="F19">
-        <v>0.9961043090761452</v>
+        <v>1.066738296821947</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030519117158913</v>
+        <v>1.063309102654983</v>
       </c>
       <c r="J19">
-        <v>0.9959468313597452</v>
+        <v>1.069728938690344</v>
       </c>
       <c r="K19">
-        <v>1.007807148954561</v>
+        <v>1.07154917175865</v>
       </c>
       <c r="L19">
-        <v>0.9918106452714717</v>
+        <v>1.075057455916875</v>
       </c>
       <c r="M19">
-        <v>1.00992572122526</v>
+        <v>1.079437658960887</v>
       </c>
       <c r="N19">
-        <v>0.9973611900969742</v>
+        <v>1.071248076482909</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9623054940306836</v>
+        <v>1.041246858854382</v>
       </c>
       <c r="D20">
-        <v>0.9896233403601175</v>
+        <v>1.056151831771249</v>
       </c>
       <c r="E20">
-        <v>0.9724783477729629</v>
+        <v>1.059357709957959</v>
       </c>
       <c r="F20">
-        <v>0.9915194786582553</v>
+        <v>1.063815744362892</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028647517602532</v>
+        <v>1.061983225661666</v>
       </c>
       <c r="J20">
-        <v>0.9913710002741937</v>
+        <v>1.067275421843611</v>
       </c>
       <c r="K20">
-        <v>1.003851138294895</v>
+        <v>1.069274297819774</v>
       </c>
       <c r="L20">
-        <v>0.9870230334909614</v>
+        <v>1.072431381437256</v>
       </c>
       <c r="M20">
-        <v>1.005713105137978</v>
+        <v>1.076822185188056</v>
       </c>
       <c r="N20">
-        <v>0.9927788608064261</v>
+        <v>1.068791075360831</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9435033150140391</v>
+        <v>1.030777082263393</v>
       </c>
       <c r="D21">
-        <v>0.9747105809463867</v>
+        <v>1.047505222619375</v>
       </c>
       <c r="E21">
-        <v>0.9546002952030047</v>
+        <v>1.049524266035538</v>
       </c>
       <c r="F21">
-        <v>0.9757181590203915</v>
+        <v>1.054026184594159</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022168379427802</v>
+        <v>1.057521414305822</v>
       </c>
       <c r="J21">
-        <v>0.9755689570495352</v>
+        <v>1.059042095840816</v>
       </c>
       <c r="K21">
-        <v>0.9901874486600634</v>
+        <v>1.061639220820888</v>
       </c>
       <c r="L21">
-        <v>0.9704960355364124</v>
+        <v>1.063624439559079</v>
       </c>
       <c r="M21">
-        <v>0.9911746382039491</v>
+        <v>1.068051538779679</v>
       </c>
       <c r="N21">
-        <v>0.9769543768678692</v>
+        <v>1.060546057090737</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.930677893470665</v>
+        <v>1.02392696617727</v>
       </c>
       <c r="D22">
-        <v>0.9645624985787391</v>
+        <v>1.041854200287208</v>
       </c>
       <c r="E22">
-        <v>0.9424262707899307</v>
+        <v>1.043099379131594</v>
       </c>
       <c r="F22">
-        <v>0.9649716088969136</v>
+        <v>1.047630805760172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017739937017944</v>
+        <v>1.054590833971237</v>
       </c>
       <c r="J22">
-        <v>0.9647938757334455</v>
+        <v>1.053651757439796</v>
       </c>
       <c r="K22">
-        <v>0.9808702562855071</v>
+        <v>1.056639744083576</v>
       </c>
       <c r="L22">
-        <v>0.9592315766869045</v>
+        <v>1.057862795113127</v>
       </c>
       <c r="M22">
-        <v>0.9812704564289306</v>
+        <v>1.062314270069741</v>
       </c>
       <c r="N22">
-        <v>0.9661639937003912</v>
+        <v>1.055148063790907</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9375839830270101</v>
+        <v>1.027585211066479</v>
       </c>
       <c r="D23">
-        <v>0.9700242779707016</v>
+        <v>1.044871435312916</v>
       </c>
       <c r="E23">
-        <v>0.9489794305643342</v>
+        <v>1.046529654951821</v>
       </c>
       <c r="F23">
-        <v>0.9707549045372323</v>
+        <v>1.05104524380606</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020125106073223</v>
+        <v>1.056156908617645</v>
       </c>
       <c r="J23">
-        <v>0.970595349324278</v>
+        <v>1.056530709709097</v>
       </c>
       <c r="K23">
-        <v>0.9858866931115432</v>
+        <v>1.059310005528377</v>
       </c>
       <c r="L23">
-        <v>0.9652960861791274</v>
+        <v>1.060939661290454</v>
       </c>
       <c r="M23">
-        <v>0.9866020171559085</v>
+        <v>1.065378056207449</v>
       </c>
       <c r="N23">
-        <v>0.9719737060491612</v>
+        <v>1.05803110450265</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9626060434673747</v>
+        <v>1.04141817530472</v>
       </c>
       <c r="D24">
-        <v>0.9898620249285558</v>
+        <v>1.056293405586423</v>
       </c>
       <c r="E24">
-        <v>0.9727644136371347</v>
+        <v>1.059518750092136</v>
       </c>
       <c r="F24">
-        <v>0.9917724808242568</v>
+        <v>1.063976078471432</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028750902576876</v>
+        <v>1.062056041023308</v>
       </c>
       <c r="J24">
-        <v>0.9916236142040121</v>
+        <v>1.067410078913063</v>
       </c>
       <c r="K24">
-        <v>1.004069544969787</v>
+        <v>1.069399155233183</v>
       </c>
       <c r="L24">
-        <v>0.9872873157354635</v>
+        <v>1.072575489018008</v>
       </c>
       <c r="M24">
-        <v>1.005945638075054</v>
+        <v>1.076965708424731</v>
       </c>
       <c r="N24">
-        <v>0.9930318334769999</v>
+        <v>1.068925923658767</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9882079044578775</v>
+        <v>1.056443108073429</v>
       </c>
       <c r="D25">
-        <v>1.010223302360175</v>
+        <v>1.068719892458837</v>
       </c>
       <c r="E25">
-        <v>0.9971645262526371</v>
+        <v>1.073659381839129</v>
       </c>
       <c r="F25">
-        <v>1.013367751705012</v>
+        <v>1.078056269446745</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037526086109565</v>
+        <v>1.068414101630986</v>
       </c>
       <c r="J25">
-        <v>1.013138742550587</v>
+        <v>1.07920959061853</v>
       </c>
       <c r="K25">
-        <v>1.022664960934861</v>
+        <v>1.080337492875031</v>
       </c>
       <c r="L25">
-        <v>1.009807019350977</v>
+        <v>1.0852125476591</v>
       </c>
       <c r="M25">
-        <v>1.025762035182143</v>
+        <v>1.089552699908276</v>
       </c>
       <c r="N25">
-        <v>1.014577515773647</v>
+        <v>1.080742192024279</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.067724699467324</v>
+        <v>1.102879542016455</v>
       </c>
       <c r="D2">
-        <v>1.078061825022049</v>
+        <v>1.101823131779284</v>
       </c>
       <c r="E2">
-        <v>1.084299037755295</v>
+        <v>1.115342065623192</v>
       </c>
       <c r="F2">
-        <v>1.088652432372133</v>
+        <v>1.119365856477834</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073145742488464</v>
+        <v>1.069860139229108</v>
       </c>
       <c r="J2">
-        <v>1.088052638735069</v>
+        <v>1.107650339899305</v>
       </c>
       <c r="K2">
-        <v>1.088531090633659</v>
+        <v>1.10444183671364</v>
       </c>
       <c r="L2">
-        <v>1.094696790060047</v>
+        <v>1.117927337431595</v>
       </c>
       <c r="M2">
-        <v>1.099000868794918</v>
+        <v>1.12194134488839</v>
       </c>
       <c r="N2">
-        <v>1.089597798283455</v>
+        <v>1.109223330431232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.075561117424424</v>
+        <v>1.104428814165904</v>
       </c>
       <c r="D3">
-        <v>1.084555501196375</v>
+        <v>1.103113588126888</v>
       </c>
       <c r="E3">
-        <v>1.091700753414533</v>
+        <v>1.116849896673432</v>
       </c>
       <c r="F3">
-        <v>1.09602487243357</v>
+        <v>1.120868666987156</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.07640668672044</v>
+        <v>1.070413317494746</v>
       </c>
       <c r="J3">
-        <v>1.09418432180747</v>
+        <v>1.108866495721032</v>
       </c>
       <c r="K3">
-        <v>1.094209783525827</v>
+        <v>1.105553382346446</v>
       </c>
       <c r="L3">
-        <v>1.101280825415213</v>
+        <v>1.119258189275311</v>
       </c>
       <c r="M3">
-        <v>1.105560607043282</v>
+        <v>1.123267899578378</v>
       </c>
       <c r="N3">
-        <v>1.095738189049133</v>
+        <v>1.11044121333372</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.080482425584733</v>
+        <v>1.105429908592119</v>
       </c>
       <c r="D4">
-        <v>1.088635101991998</v>
+        <v>1.10394720798236</v>
       </c>
       <c r="E4">
-        <v>1.096353805543437</v>
+        <v>1.117824477189137</v>
       </c>
       <c r="F4">
-        <v>1.10065992738182</v>
+        <v>1.121840017665955</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078442284778823</v>
+        <v>1.070769129030025</v>
       </c>
       <c r="J4">
-        <v>1.098029661823863</v>
+        <v>1.109651552711814</v>
       </c>
       <c r="K4">
-        <v>1.097769710192567</v>
+        <v>1.106270671883338</v>
       </c>
       <c r="L4">
-        <v>1.105413426540759</v>
+        <v>1.120117726240121</v>
       </c>
       <c r="M4">
-        <v>1.109678267334256</v>
+        <v>1.124124672558724</v>
       </c>
       <c r="N4">
-        <v>1.099588989889415</v>
+        <v>1.111227385195477</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.082517586169744</v>
+        <v>1.105850443920678</v>
       </c>
       <c r="D5">
-        <v>1.090322473221912</v>
+        <v>1.104297334290914</v>
       </c>
       <c r="E5">
-        <v>1.098279109195135</v>
+        <v>1.118233937361432</v>
       </c>
       <c r="F5">
-        <v>1.102577875558738</v>
+        <v>1.122248124420556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079281083428489</v>
+        <v>1.070918204840487</v>
       </c>
       <c r="J5">
-        <v>1.099618523747896</v>
+        <v>1.10998114719158</v>
       </c>
       <c r="K5">
-        <v>1.099240308533396</v>
+        <v>1.106571757788559</v>
       </c>
       <c r="L5">
-        <v>1.107121841128837</v>
+        <v>1.120478695640382</v>
       </c>
       <c r="M5">
-        <v>1.111380574993913</v>
+        <v>1.124484483869944</v>
       </c>
       <c r="N5">
-        <v>1.101180108179626</v>
+        <v>1.111557447737209</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.082857374219298</v>
+        <v>1.105921034827901</v>
       </c>
       <c r="D6">
-        <v>1.090604209670827</v>
+        <v>1.104356103000197</v>
       </c>
       <c r="E6">
-        <v>1.098600617403917</v>
+        <v>1.118302672857735</v>
       </c>
       <c r="F6">
-        <v>1.1028981606612</v>
+        <v>1.122316632927749</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07942095008396</v>
+        <v>1.070943205660043</v>
       </c>
       <c r="J6">
-        <v>1.099883717965655</v>
+        <v>1.110036461720492</v>
       </c>
       <c r="K6">
-        <v>1.099485743593205</v>
+        <v>1.106622284464408</v>
       </c>
       <c r="L6">
-        <v>1.107407040199875</v>
+        <v>1.12053928189241</v>
       </c>
       <c r="M6">
-        <v>1.111664758550468</v>
+        <v>1.12454487589967</v>
       </c>
       <c r="N6">
-        <v>1.101445679003593</v>
+        <v>1.111612840819097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.08050974961714</v>
+        <v>1.105435529072474</v>
       </c>
       <c r="D7">
-        <v>1.088657755559779</v>
+        <v>1.10395188766694</v>
       </c>
       <c r="E7">
-        <v>1.0963796504479</v>
+        <v>1.117829949403611</v>
       </c>
       <c r="F7">
-        <v>1.100685673194748</v>
+        <v>1.121845471778798</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.078453558433923</v>
+        <v>1.070771122978166</v>
       </c>
       <c r="J7">
-        <v>1.098050999233324</v>
+        <v>1.109655958504628</v>
       </c>
       <c r="K7">
-        <v>1.097789460733907</v>
+        <v>1.106274696819055</v>
       </c>
       <c r="L7">
-        <v>1.105436366066252</v>
+        <v>1.120122551016064</v>
       </c>
       <c r="M7">
-        <v>1.109701124590188</v>
+        <v>1.124129481845031</v>
       </c>
       <c r="N7">
-        <v>1.099610357600445</v>
+        <v>1.111231797245022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.070405244620186</v>
+        <v>1.103403417813521</v>
       </c>
       <c r="D8">
-        <v>1.080282692914148</v>
+        <v>1.102259539139474</v>
       </c>
       <c r="E8">
-        <v>1.086829849515446</v>
+        <v>1.11585187333125</v>
       </c>
       <c r="F8">
-        <v>1.091173144309691</v>
+        <v>1.119873963524597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074263748395805</v>
+        <v>1.070047531623855</v>
       </c>
       <c r="J8">
-        <v>1.090151162919157</v>
+        <v>1.108061737697384</v>
       </c>
       <c r="K8">
-        <v>1.090474854676177</v>
+        <v>1.10481789676232</v>
       </c>
       <c r="L8">
-        <v>1.096949372424874</v>
+        <v>1.118377442835421</v>
       </c>
       <c r="M8">
-        <v>1.101245070037293</v>
+        <v>1.122389994574788</v>
       </c>
       <c r="N8">
-        <v>1.091699302612589</v>
+        <v>1.109635312461372</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.051355855313418</v>
+        <v>1.099811605339612</v>
       </c>
       <c r="D9">
-        <v>1.064510317694776</v>
+        <v>1.099266490113693</v>
       </c>
       <c r="E9">
-        <v>1.068867789493855</v>
+        <v>1.112357622048352</v>
       </c>
       <c r="F9">
-        <v>1.073284816325735</v>
+        <v>1.116391433604993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06626791493569</v>
+        <v>1.068756009494327</v>
       </c>
       <c r="J9">
-        <v>1.0752169088137</v>
+        <v>1.105237874509316</v>
       </c>
       <c r="K9">
-        <v>1.07663681075198</v>
+        <v>1.102235616016596</v>
       </c>
       <c r="L9">
-        <v>1.080934294079635</v>
+        <v>1.115289703204479</v>
       </c>
       <c r="M9">
-        <v>1.085291138019827</v>
+        <v>1.119312289890864</v>
       </c>
       <c r="N9">
-        <v>1.076743840153319</v>
+        <v>1.106807439063675</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.037662235093567</v>
+        <v>1.097409208449239</v>
       </c>
       <c r="D10">
-        <v>1.053190187486985</v>
+        <v>1.097263425646433</v>
       </c>
       <c r="E10">
-        <v>1.055989110296665</v>
+        <v>1.110021893653887</v>
       </c>
       <c r="F10">
-        <v>1.060462006063388</v>
+        <v>1.114063624715904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060458154457149</v>
+        <v>1.067883737184999</v>
       </c>
       <c r="J10">
-        <v>1.064457349405917</v>
+        <v>1.103345080912897</v>
       </c>
       <c r="K10">
-        <v>1.066661189542023</v>
+        <v>1.100503527871204</v>
       </c>
       <c r="L10">
-        <v>1.069416052019098</v>
+        <v>1.113222319388563</v>
       </c>
       <c r="M10">
-        <v>1.073819152889211</v>
+        <v>1.11725168821704</v>
       </c>
       <c r="N10">
-        <v>1.065969000937038</v>
+        <v>1.104911957483243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.031455463221422</v>
+        <v>1.096366974099771</v>
       </c>
       <c r="D11">
-        <v>1.048065132986139</v>
+        <v>1.09639416991093</v>
       </c>
       <c r="E11">
-        <v>1.050160919656903</v>
+        <v>1.109008924947751</v>
       </c>
       <c r="F11">
-        <v>1.05465995051389</v>
+        <v>1.113054111475331</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057811176930902</v>
+        <v>1.067503320914576</v>
       </c>
       <c r="J11">
-        <v>1.059575779226573</v>
+        <v>1.102522973141743</v>
       </c>
       <c r="K11">
-        <v>1.062134175361011</v>
+        <v>1.099750932005763</v>
       </c>
       <c r="L11">
-        <v>1.064195061573544</v>
+        <v>1.112324922147226</v>
       </c>
       <c r="M11">
-        <v>1.068619774034894</v>
+        <v>1.116357250606913</v>
       </c>
       <c r="N11">
-        <v>1.061080498368115</v>
+        <v>1.104088682224756</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.029104209517666</v>
+        <v>1.095979535009908</v>
       </c>
       <c r="D12">
-        <v>1.046124706163896</v>
+        <v>1.096070994788715</v>
       </c>
       <c r="E12">
-        <v>1.047954587172397</v>
+        <v>1.108632417152996</v>
       </c>
       <c r="F12">
-        <v>1.052463653222501</v>
+        <v>1.112678891248858</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056806501322856</v>
+        <v>1.067361605498418</v>
       </c>
       <c r="J12">
-        <v>1.057725935237099</v>
+        <v>1.102217220473305</v>
       </c>
       <c r="K12">
-        <v>1.06041854734366</v>
+        <v>1.099470988595532</v>
       </c>
       <c r="L12">
-        <v>1.062217319839741</v>
+        <v>1.111991249662946</v>
       </c>
       <c r="M12">
-        <v>1.066650325649857</v>
+        <v>1.116024680992449</v>
       </c>
       <c r="N12">
-        <v>1.059228027387996</v>
+        <v>1.103782495352459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.029610705386055</v>
+        <v>1.096062656045002</v>
       </c>
       <c r="D13">
-        <v>1.046542653482869</v>
+        <v>1.096140330405133</v>
       </c>
       <c r="E13">
-        <v>1.048429794656198</v>
+        <v>1.10871319062421</v>
       </c>
       <c r="F13">
-        <v>1.052936692675691</v>
+        <v>1.112759388347087</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057023009754427</v>
+        <v>1.06739202263474</v>
       </c>
       <c r="J13">
-        <v>1.058124445331038</v>
+        <v>1.102282823009003</v>
       </c>
       <c r="K13">
-        <v>1.060788149334046</v>
+        <v>1.099531055425028</v>
       </c>
       <c r="L13">
-        <v>1.062643350096457</v>
+        <v>1.112062839016956</v>
       </c>
       <c r="M13">
-        <v>1.067074564426124</v>
+        <v>1.116096033615942</v>
       </c>
       <c r="N13">
-        <v>1.059627103411979</v>
+        <v>1.103848191051283</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.031262067596427</v>
+        <v>1.096334954577222</v>
       </c>
       <c r="D14">
-        <v>1.047905506464539</v>
+        <v>1.096367462210038</v>
       </c>
       <c r="E14">
-        <v>1.049979412798518</v>
+        <v>1.108977807764888</v>
       </c>
       <c r="F14">
-        <v>1.054479266263029</v>
+        <v>1.113023100639926</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057728579023665</v>
+        <v>1.067491615097904</v>
       </c>
       <c r="J14">
-        <v>1.059423637243747</v>
+        <v>1.102497707431875</v>
       </c>
       <c r="K14">
-        <v>1.061993074782404</v>
+        <v>1.099727799908839</v>
       </c>
       <c r="L14">
-        <v>1.064032385839029</v>
+        <v>1.112297347639767</v>
       </c>
       <c r="M14">
-        <v>1.068457778229962</v>
+        <v>1.116329767190476</v>
       </c>
       <c r="N14">
-        <v>1.060928140326223</v>
+        <v>1.104063380634683</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.032273327164197</v>
+        <v>1.096502685751057</v>
       </c>
       <c r="D15">
-        <v>1.048740232131778</v>
+        <v>1.096507366330872</v>
       </c>
       <c r="E15">
-        <v>1.050928568376323</v>
+        <v>1.109140814256741</v>
       </c>
       <c r="F15">
-        <v>1.055424126003048</v>
+        <v>1.113185550165668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058160402454698</v>
+        <v>1.067552922611734</v>
       </c>
       <c r="J15">
-        <v>1.060219158915131</v>
+        <v>1.102630053550178</v>
       </c>
       <c r="K15">
-        <v>1.062730857471369</v>
+        <v>1.099848968032437</v>
       </c>
       <c r="L15">
-        <v>1.064883015928749</v>
+        <v>1.112441790964354</v>
       </c>
       <c r="M15">
-        <v>1.069304857372626</v>
+        <v>1.116473733452766</v>
       </c>
       <c r="N15">
-        <v>1.061724791729628</v>
+        <v>1.104195914699655</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.03806797603849</v>
+        <v>1.097478335590188</v>
       </c>
       <c r="D16">
-        <v>1.053525351210785</v>
+        <v>1.097321074327435</v>
       </c>
       <c r="E16">
-        <v>1.056370303521649</v>
+        <v>1.110089086993645</v>
       </c>
       <c r="F16">
-        <v>1.060841508642008</v>
+        <v>1.114130589290435</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.06063091550399</v>
+        <v>1.067908926605959</v>
       </c>
       <c r="J16">
-        <v>1.064776372168132</v>
+        <v>1.10339958787519</v>
       </c>
       <c r="K16">
-        <v>1.06695702030138</v>
+        <v>1.100553420040706</v>
       </c>
       <c r="L16">
-        <v>1.069757356099199</v>
+        <v>1.11328182954514</v>
       </c>
       <c r="M16">
-        <v>1.074159058319532</v>
+        <v>1.117311002442992</v>
       </c>
       <c r="N16">
-        <v>1.066288476748168</v>
+        <v>1.104966541851675</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.041625817286752</v>
+        <v>1.09808979815348</v>
       </c>
       <c r="D17">
-        <v>1.056465002083121</v>
+        <v>1.097830974039677</v>
       </c>
       <c r="E17">
-        <v>1.059713942647585</v>
+        <v>1.110683483798617</v>
       </c>
       <c r="F17">
-        <v>1.064170415812826</v>
+        <v>1.114722964844645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062144287111327</v>
+        <v>1.068131508564245</v>
       </c>
       <c r="J17">
-        <v>1.067573285255316</v>
+        <v>1.103881617784319</v>
       </c>
       <c r="K17">
-        <v>1.069550483513645</v>
+        <v>1.100994606014071</v>
       </c>
       <c r="L17">
-        <v>1.072750152605304</v>
+        <v>1.11380816741321</v>
       </c>
       <c r="M17">
-        <v>1.077139664175095</v>
+        <v>1.117835609217889</v>
       </c>
       <c r="N17">
-        <v>1.069089361772746</v>
+        <v>1.105449256298564</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.04367459167314</v>
+        <v>1.098446263448752</v>
       </c>
       <c r="D18">
-        <v>1.058158336256659</v>
+        <v>1.09812820556598</v>
       </c>
       <c r="E18">
-        <v>1.061640224124936</v>
+        <v>1.111030033236345</v>
       </c>
       <c r="F18">
-        <v>1.066088289244744</v>
+        <v>1.115068337848111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.063014470488166</v>
+        <v>1.068261074995877</v>
       </c>
       <c r="J18">
-        <v>1.069183433572962</v>
+        <v>1.104162535446532</v>
       </c>
       <c r="K18">
-        <v>1.07104340193675</v>
+        <v>1.101251692856087</v>
       </c>
       <c r="L18">
-        <v>1.074473517766569</v>
+        <v>1.114114959024331</v>
       </c>
       <c r="M18">
-        <v>1.078856069268863</v>
+        <v>1.118141393317058</v>
       </c>
       <c r="N18">
-        <v>1.07070179668569</v>
+        <v>1.105730572896079</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.044368799830826</v>
+        <v>1.098567776874516</v>
       </c>
       <c r="D19">
-        <v>1.058732194459684</v>
+        <v>1.098229522778441</v>
       </c>
       <c r="E19">
-        <v>1.062293068265475</v>
+        <v>1.111148172079602</v>
       </c>
       <c r="F19">
-        <v>1.066738296821947</v>
+        <v>1.115186075983061</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063309102654983</v>
+        <v>1.068305209497435</v>
       </c>
       <c r="J19">
-        <v>1.069728938690344</v>
+        <v>1.104258280243118</v>
       </c>
       <c r="K19">
-        <v>1.07154917175865</v>
+        <v>1.101339310710567</v>
       </c>
       <c r="L19">
-        <v>1.075057455916875</v>
+        <v>1.114219531247158</v>
       </c>
       <c r="M19">
-        <v>1.079437658960887</v>
+        <v>1.118245622375772</v>
       </c>
       <c r="N19">
-        <v>1.071248076482909</v>
+        <v>1.105826453661259</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.041246858854382</v>
+        <v>1.098024213776016</v>
       </c>
       <c r="D20">
-        <v>1.056151831771249</v>
+        <v>1.097776285745354</v>
       </c>
       <c r="E20">
-        <v>1.059357709957959</v>
+        <v>1.110619726445823</v>
       </c>
       <c r="F20">
-        <v>1.063815744362892</v>
+        <v>1.114659424090756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061983225661666</v>
+        <v>1.068107654739012</v>
       </c>
       <c r="J20">
-        <v>1.067275421843611</v>
+        <v>1.103829925644645</v>
       </c>
       <c r="K20">
-        <v>1.069274297819774</v>
+        <v>1.10094729678667</v>
       </c>
       <c r="L20">
-        <v>1.072431381437256</v>
+        <v>1.113751718362691</v>
       </c>
       <c r="M20">
-        <v>1.076822185188056</v>
+        <v>1.117779345668535</v>
       </c>
       <c r="N20">
-        <v>1.068791075360831</v>
+        <v>1.105397490750123</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.030777082263393</v>
+        <v>1.096254777991657</v>
       </c>
       <c r="D21">
-        <v>1.047505222619375</v>
+        <v>1.096300585750393</v>
       </c>
       <c r="E21">
-        <v>1.049524266035538</v>
+        <v>1.108899891473316</v>
       </c>
       <c r="F21">
-        <v>1.054026184594159</v>
+        <v>1.112945450690694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057521414305822</v>
+        <v>1.06746229899969</v>
       </c>
       <c r="J21">
-        <v>1.059042095840816</v>
+        <v>1.102434440018446</v>
       </c>
       <c r="K21">
-        <v>1.061639220820888</v>
+        <v>1.099669874541552</v>
       </c>
       <c r="L21">
-        <v>1.063624439559079</v>
+        <v>1.11222830012084</v>
       </c>
       <c r="M21">
-        <v>1.068051538779679</v>
+        <v>1.11626094780577</v>
       </c>
       <c r="N21">
-        <v>1.060546057090737</v>
+        <v>1.104000023374269</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.02392696617727</v>
+        <v>1.095140483521172</v>
       </c>
       <c r="D22">
-        <v>1.041854200287208</v>
+        <v>1.095371045223976</v>
       </c>
       <c r="E22">
-        <v>1.043099379131594</v>
+        <v>1.107817134866009</v>
       </c>
       <c r="F22">
-        <v>1.047630805760172</v>
+        <v>1.111866402998789</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054590833971237</v>
+        <v>1.067054153379236</v>
       </c>
       <c r="J22">
-        <v>1.053651757439796</v>
+        <v>1.101554810302814</v>
       </c>
       <c r="K22">
-        <v>1.056639744083576</v>
+        <v>1.098864415196457</v>
       </c>
       <c r="L22">
-        <v>1.057862795113127</v>
+        <v>1.111268500290149</v>
       </c>
       <c r="M22">
-        <v>1.062314270069741</v>
+        <v>1.115304324959755</v>
       </c>
       <c r="N22">
-        <v>1.055148063790907</v>
+        <v>1.103119144483547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.027585211066479</v>
+        <v>1.095731363936584</v>
       </c>
       <c r="D23">
-        <v>1.044871435312916</v>
+        <v>1.095863976636331</v>
       </c>
       <c r="E23">
-        <v>1.046529654951821</v>
+        <v>1.108391262783813</v>
       </c>
       <c r="F23">
-        <v>1.05104524380606</v>
+        <v>1.112438562485433</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056156908617645</v>
+        <v>1.067270746405319</v>
       </c>
       <c r="J23">
-        <v>1.056530709709097</v>
+        <v>1.102021332721351</v>
       </c>
       <c r="K23">
-        <v>1.059310005528377</v>
+        <v>1.099291624039321</v>
       </c>
       <c r="L23">
-        <v>1.060939661290454</v>
+        <v>1.111777497310426</v>
       </c>
       <c r="M23">
-        <v>1.065378056207449</v>
+        <v>1.115811635830335</v>
       </c>
       <c r="N23">
-        <v>1.05803110450265</v>
+        <v>1.103586329417429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.04141817530472</v>
+        <v>1.098053849121937</v>
       </c>
       <c r="D24">
-        <v>1.056293405586423</v>
+        <v>1.097800997601421</v>
       </c>
       <c r="E24">
-        <v>1.059518750092136</v>
+        <v>1.1106485361196</v>
       </c>
       <c r="F24">
-        <v>1.063976078471432</v>
+        <v>1.114688135885007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.062056041023308</v>
+        <v>1.068118434065112</v>
       </c>
       <c r="J24">
-        <v>1.067410078913063</v>
+        <v>1.103853283846197</v>
       </c>
       <c r="K24">
-        <v>1.069399155233183</v>
+        <v>1.100968674561202</v>
       </c>
       <c r="L24">
-        <v>1.072575489018008</v>
+        <v>1.113777225915233</v>
       </c>
       <c r="M24">
-        <v>1.076965708424731</v>
+        <v>1.117804769394275</v>
       </c>
       <c r="N24">
-        <v>1.068925923658767</v>
+        <v>1.105420882123</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.056443108073429</v>
+        <v>1.100741524293793</v>
       </c>
       <c r="D25">
-        <v>1.068719892458837</v>
+        <v>1.100041595391321</v>
       </c>
       <c r="E25">
-        <v>1.073659381839129</v>
+        <v>1.113262035993304</v>
       </c>
       <c r="F25">
-        <v>1.078056269446745</v>
+        <v>1.117292799165254</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068414101630986</v>
+        <v>1.069091869165148</v>
       </c>
       <c r="J25">
-        <v>1.07920959061853</v>
+        <v>1.105969684325254</v>
       </c>
       <c r="K25">
-        <v>1.080337492875031</v>
+        <v>1.102905035091145</v>
       </c>
       <c r="L25">
-        <v>1.0852125476591</v>
+        <v>1.116089495851349</v>
       </c>
       <c r="M25">
-        <v>1.089552699908276</v>
+        <v>1.120109472358442</v>
       </c>
       <c r="N25">
-        <v>1.080742192024279</v>
+        <v>1.107540288133492</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.102879542016455</v>
+        <v>1.067724699467326</v>
       </c>
       <c r="D2">
-        <v>1.101823131779284</v>
+        <v>1.07806182502205</v>
       </c>
       <c r="E2">
-        <v>1.115342065623192</v>
+        <v>1.084299037755296</v>
       </c>
       <c r="F2">
-        <v>1.119365856477834</v>
+        <v>1.088652432372134</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069860139229108</v>
+        <v>1.073145742488465</v>
       </c>
       <c r="J2">
-        <v>1.107650339899305</v>
+        <v>1.08805263873507</v>
       </c>
       <c r="K2">
-        <v>1.10444183671364</v>
+        <v>1.08853109063366</v>
       </c>
       <c r="L2">
-        <v>1.117927337431595</v>
+        <v>1.094696790060048</v>
       </c>
       <c r="M2">
-        <v>1.12194134488839</v>
+        <v>1.099000868794919</v>
       </c>
       <c r="N2">
-        <v>1.109223330431232</v>
+        <v>1.089597798283456</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.104428814165904</v>
+        <v>1.075561117424422</v>
       </c>
       <c r="D3">
-        <v>1.103113588126888</v>
+        <v>1.084555501196374</v>
       </c>
       <c r="E3">
-        <v>1.116849896673432</v>
+        <v>1.091700753414532</v>
       </c>
       <c r="F3">
-        <v>1.120868666987156</v>
+        <v>1.096024872433569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070413317494746</v>
+        <v>1.076406686720439</v>
       </c>
       <c r="J3">
-        <v>1.108866495721032</v>
+        <v>1.094184321807469</v>
       </c>
       <c r="K3">
-        <v>1.105553382346446</v>
+        <v>1.094209783525826</v>
       </c>
       <c r="L3">
-        <v>1.119258189275311</v>
+        <v>1.101280825415212</v>
       </c>
       <c r="M3">
-        <v>1.123267899578378</v>
+        <v>1.10556060704328</v>
       </c>
       <c r="N3">
-        <v>1.11044121333372</v>
+        <v>1.095738189049131</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.105429908592119</v>
+        <v>1.080482425584738</v>
       </c>
       <c r="D4">
-        <v>1.10394720798236</v>
+        <v>1.088635101992003</v>
       </c>
       <c r="E4">
-        <v>1.117824477189137</v>
+        <v>1.096353805543441</v>
       </c>
       <c r="F4">
-        <v>1.121840017665955</v>
+        <v>1.100659927381825</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070769129030025</v>
+        <v>1.078442284778826</v>
       </c>
       <c r="J4">
-        <v>1.109651552711814</v>
+        <v>1.098029661823867</v>
       </c>
       <c r="K4">
-        <v>1.106270671883338</v>
+        <v>1.097769710192571</v>
       </c>
       <c r="L4">
-        <v>1.120117726240121</v>
+        <v>1.105413426540763</v>
       </c>
       <c r="M4">
-        <v>1.124124672558724</v>
+        <v>1.10967826733426</v>
       </c>
       <c r="N4">
-        <v>1.111227385195477</v>
+        <v>1.09958898988942</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.105850443920678</v>
+        <v>1.082517586169741</v>
       </c>
       <c r="D5">
-        <v>1.104297334290914</v>
+        <v>1.090322473221911</v>
       </c>
       <c r="E5">
-        <v>1.118233937361432</v>
+        <v>1.098279109195132</v>
       </c>
       <c r="F5">
-        <v>1.122248124420556</v>
+        <v>1.102577875558736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070918204840487</v>
+        <v>1.079281083428488</v>
       </c>
       <c r="J5">
-        <v>1.10998114719158</v>
+        <v>1.099618523747894</v>
       </c>
       <c r="K5">
-        <v>1.106571757788559</v>
+        <v>1.099240308533394</v>
       </c>
       <c r="L5">
-        <v>1.120478695640382</v>
+        <v>1.107121841128835</v>
       </c>
       <c r="M5">
-        <v>1.124484483869944</v>
+        <v>1.111380574993911</v>
       </c>
       <c r="N5">
-        <v>1.111557447737209</v>
+        <v>1.101180108179624</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.105921034827901</v>
+        <v>1.0828573742193</v>
       </c>
       <c r="D6">
-        <v>1.104356103000197</v>
+        <v>1.090604209670829</v>
       </c>
       <c r="E6">
-        <v>1.118302672857735</v>
+        <v>1.098600617403919</v>
       </c>
       <c r="F6">
-        <v>1.122316632927749</v>
+        <v>1.102898160661202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070943205660043</v>
+        <v>1.07942095008396</v>
       </c>
       <c r="J6">
-        <v>1.110036461720492</v>
+        <v>1.099883717965657</v>
       </c>
       <c r="K6">
-        <v>1.106622284464408</v>
+        <v>1.099485743593207</v>
       </c>
       <c r="L6">
-        <v>1.12053928189241</v>
+        <v>1.107407040199877</v>
       </c>
       <c r="M6">
-        <v>1.12454487589967</v>
+        <v>1.11166475855047</v>
       </c>
       <c r="N6">
-        <v>1.111612840819097</v>
+        <v>1.101445679003594</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.105435529072474</v>
+        <v>1.08050974961714</v>
       </c>
       <c r="D7">
-        <v>1.10395188766694</v>
+        <v>1.08865775555978</v>
       </c>
       <c r="E7">
-        <v>1.117829949403611</v>
+        <v>1.096379650447901</v>
       </c>
       <c r="F7">
-        <v>1.121845471778798</v>
+        <v>1.100685673194748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070771122978166</v>
+        <v>1.078453558433923</v>
       </c>
       <c r="J7">
-        <v>1.109655958504628</v>
+        <v>1.098050999233324</v>
       </c>
       <c r="K7">
-        <v>1.106274696819055</v>
+        <v>1.097789460733907</v>
       </c>
       <c r="L7">
-        <v>1.120122551016064</v>
+        <v>1.105436366066252</v>
       </c>
       <c r="M7">
-        <v>1.124129481845031</v>
+        <v>1.109701124590188</v>
       </c>
       <c r="N7">
-        <v>1.111231797245022</v>
+        <v>1.099610357600445</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.103403417813521</v>
+        <v>1.070405244620187</v>
       </c>
       <c r="D8">
-        <v>1.102259539139474</v>
+        <v>1.080282692914149</v>
       </c>
       <c r="E8">
-        <v>1.11585187333125</v>
+        <v>1.086829849515447</v>
       </c>
       <c r="F8">
-        <v>1.119873963524597</v>
+        <v>1.091173144309692</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070047531623855</v>
+        <v>1.074263748395806</v>
       </c>
       <c r="J8">
-        <v>1.108061737697384</v>
+        <v>1.090151162919158</v>
       </c>
       <c r="K8">
-        <v>1.10481789676232</v>
+        <v>1.090474854676178</v>
       </c>
       <c r="L8">
-        <v>1.118377442835421</v>
+        <v>1.096949372424875</v>
       </c>
       <c r="M8">
-        <v>1.122389994574788</v>
+        <v>1.101245070037293</v>
       </c>
       <c r="N8">
-        <v>1.109635312461372</v>
+        <v>1.09169930261259</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.099811605339612</v>
+        <v>1.05135585531342</v>
       </c>
       <c r="D9">
-        <v>1.099266490113693</v>
+        <v>1.064510317694778</v>
       </c>
       <c r="E9">
-        <v>1.112357622048352</v>
+        <v>1.068867789493857</v>
       </c>
       <c r="F9">
-        <v>1.116391433604993</v>
+        <v>1.073284816325737</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.068756009494327</v>
+        <v>1.066267914935692</v>
       </c>
       <c r="J9">
-        <v>1.105237874509316</v>
+        <v>1.075216908813703</v>
       </c>
       <c r="K9">
-        <v>1.102235616016596</v>
+        <v>1.076636810751982</v>
       </c>
       <c r="L9">
-        <v>1.115289703204479</v>
+        <v>1.080934294079637</v>
       </c>
       <c r="M9">
-        <v>1.119312289890864</v>
+        <v>1.085291138019829</v>
       </c>
       <c r="N9">
-        <v>1.106807439063675</v>
+        <v>1.076743840153321</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.097409208449239</v>
+        <v>1.037662235093564</v>
       </c>
       <c r="D10">
-        <v>1.097263425646433</v>
+        <v>1.053190187486982</v>
       </c>
       <c r="E10">
-        <v>1.110021893653887</v>
+        <v>1.055989110296661</v>
       </c>
       <c r="F10">
-        <v>1.114063624715904</v>
+        <v>1.060462006063384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.067883737184999</v>
+        <v>1.060458154457147</v>
       </c>
       <c r="J10">
-        <v>1.103345080912897</v>
+        <v>1.064457349405914</v>
       </c>
       <c r="K10">
-        <v>1.100503527871204</v>
+        <v>1.06666118954202</v>
       </c>
       <c r="L10">
-        <v>1.113222319388563</v>
+        <v>1.069416052019094</v>
       </c>
       <c r="M10">
-        <v>1.11725168821704</v>
+        <v>1.073819152889208</v>
       </c>
       <c r="N10">
-        <v>1.104911957483243</v>
+        <v>1.065969000937035</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.096366974099771</v>
+        <v>1.031455463221419</v>
       </c>
       <c r="D11">
-        <v>1.09639416991093</v>
+        <v>1.048065132986137</v>
       </c>
       <c r="E11">
-        <v>1.109008924947751</v>
+        <v>1.0501609196569</v>
       </c>
       <c r="F11">
-        <v>1.113054111475331</v>
+        <v>1.054659950513886</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067503320914576</v>
+        <v>1.0578111769309</v>
       </c>
       <c r="J11">
-        <v>1.102522973141743</v>
+        <v>1.05957577922657</v>
       </c>
       <c r="K11">
-        <v>1.099750932005763</v>
+        <v>1.062134175361008</v>
       </c>
       <c r="L11">
-        <v>1.112324922147226</v>
+        <v>1.064195061573541</v>
       </c>
       <c r="M11">
-        <v>1.116357250606913</v>
+        <v>1.068619774034891</v>
       </c>
       <c r="N11">
-        <v>1.104088682224756</v>
+        <v>1.061080498368112</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.095979535009908</v>
+        <v>1.029104209517666</v>
       </c>
       <c r="D12">
-        <v>1.096070994788715</v>
+        <v>1.046124706163895</v>
       </c>
       <c r="E12">
-        <v>1.108632417152996</v>
+        <v>1.047954587172397</v>
       </c>
       <c r="F12">
-        <v>1.112678891248858</v>
+        <v>1.0524636532225</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.067361605498418</v>
+        <v>1.056806501322856</v>
       </c>
       <c r="J12">
-        <v>1.102217220473305</v>
+        <v>1.057725935237098</v>
       </c>
       <c r="K12">
-        <v>1.099470988595532</v>
+        <v>1.060418547343659</v>
       </c>
       <c r="L12">
-        <v>1.111991249662946</v>
+        <v>1.062217319839741</v>
       </c>
       <c r="M12">
-        <v>1.116024680992449</v>
+        <v>1.066650325649856</v>
       </c>
       <c r="N12">
-        <v>1.103782495352459</v>
+        <v>1.059228027387995</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.096062656045002</v>
+        <v>1.029610705386056</v>
       </c>
       <c r="D13">
-        <v>1.096140330405133</v>
+        <v>1.04654265348287</v>
       </c>
       <c r="E13">
-        <v>1.10871319062421</v>
+        <v>1.048429794656199</v>
       </c>
       <c r="F13">
-        <v>1.112759388347087</v>
+        <v>1.052936692675692</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06739202263474</v>
+        <v>1.057023009754428</v>
       </c>
       <c r="J13">
-        <v>1.102282823009003</v>
+        <v>1.058124445331039</v>
       </c>
       <c r="K13">
-        <v>1.099531055425028</v>
+        <v>1.060788149334047</v>
       </c>
       <c r="L13">
-        <v>1.112062839016956</v>
+        <v>1.062643350096458</v>
       </c>
       <c r="M13">
-        <v>1.116096033615942</v>
+        <v>1.067074564426125</v>
       </c>
       <c r="N13">
-        <v>1.103848191051283</v>
+        <v>1.05962710341198</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.096334954577222</v>
+        <v>1.031262067596428</v>
       </c>
       <c r="D14">
-        <v>1.096367462210038</v>
+        <v>1.047905506464539</v>
       </c>
       <c r="E14">
-        <v>1.108977807764888</v>
+        <v>1.049979412798518</v>
       </c>
       <c r="F14">
-        <v>1.113023100639926</v>
+        <v>1.054479266263029</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067491615097904</v>
+        <v>1.057728579023665</v>
       </c>
       <c r="J14">
-        <v>1.102497707431875</v>
+        <v>1.059423637243747</v>
       </c>
       <c r="K14">
-        <v>1.099727799908839</v>
+        <v>1.061993074782404</v>
       </c>
       <c r="L14">
-        <v>1.112297347639767</v>
+        <v>1.064032385839029</v>
       </c>
       <c r="M14">
-        <v>1.116329767190476</v>
+        <v>1.068457778229962</v>
       </c>
       <c r="N14">
-        <v>1.104063380634683</v>
+        <v>1.060928140326223</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.096502685751057</v>
+        <v>1.032273327164195</v>
       </c>
       <c r="D15">
-        <v>1.096507366330872</v>
+        <v>1.048740232131776</v>
       </c>
       <c r="E15">
-        <v>1.109140814256741</v>
+        <v>1.050928568376321</v>
       </c>
       <c r="F15">
-        <v>1.113185550165668</v>
+        <v>1.055424126003045</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067552922611734</v>
+        <v>1.058160402454697</v>
       </c>
       <c r="J15">
-        <v>1.102630053550178</v>
+        <v>1.060219158915129</v>
       </c>
       <c r="K15">
-        <v>1.099848968032437</v>
+        <v>1.062730857471367</v>
       </c>
       <c r="L15">
-        <v>1.112441790964354</v>
+        <v>1.064883015928747</v>
       </c>
       <c r="M15">
-        <v>1.116473733452766</v>
+        <v>1.069304857372624</v>
       </c>
       <c r="N15">
-        <v>1.104195914699655</v>
+        <v>1.061724791729626</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.097478335590188</v>
+        <v>1.038067976038493</v>
       </c>
       <c r="D16">
-        <v>1.097321074327435</v>
+        <v>1.053525351210788</v>
       </c>
       <c r="E16">
-        <v>1.110089086993645</v>
+        <v>1.056370303521652</v>
       </c>
       <c r="F16">
-        <v>1.114130589290435</v>
+        <v>1.060841508642011</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.067908926605959</v>
+        <v>1.060630915503992</v>
       </c>
       <c r="J16">
-        <v>1.10339958787519</v>
+        <v>1.064776372168136</v>
       </c>
       <c r="K16">
-        <v>1.100553420040706</v>
+        <v>1.066957020301383</v>
       </c>
       <c r="L16">
-        <v>1.11328182954514</v>
+        <v>1.069757356099202</v>
       </c>
       <c r="M16">
-        <v>1.117311002442992</v>
+        <v>1.074159058319535</v>
       </c>
       <c r="N16">
-        <v>1.104966541851675</v>
+        <v>1.066288476748172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.09808979815348</v>
+        <v>1.041625817286754</v>
       </c>
       <c r="D17">
-        <v>1.097830974039677</v>
+        <v>1.056465002083123</v>
       </c>
       <c r="E17">
-        <v>1.110683483798617</v>
+        <v>1.059713942647587</v>
       </c>
       <c r="F17">
-        <v>1.114722964844645</v>
+        <v>1.064170415812827</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.068131508564245</v>
+        <v>1.062144287111328</v>
       </c>
       <c r="J17">
-        <v>1.103881617784319</v>
+        <v>1.067573285255318</v>
       </c>
       <c r="K17">
-        <v>1.100994606014071</v>
+        <v>1.069550483513646</v>
       </c>
       <c r="L17">
-        <v>1.11380816741321</v>
+        <v>1.072750152605306</v>
       </c>
       <c r="M17">
-        <v>1.117835609217889</v>
+        <v>1.077139664175096</v>
       </c>
       <c r="N17">
-        <v>1.105449256298564</v>
+        <v>1.069089361772748</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.098446263448752</v>
+        <v>1.043674591673137</v>
       </c>
       <c r="D18">
-        <v>1.09812820556598</v>
+        <v>1.058158336256656</v>
       </c>
       <c r="E18">
-        <v>1.111030033236345</v>
+        <v>1.061640224124933</v>
       </c>
       <c r="F18">
-        <v>1.115068337848111</v>
+        <v>1.066088289244741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.068261074995877</v>
+        <v>1.063014470488164</v>
       </c>
       <c r="J18">
-        <v>1.104162535446532</v>
+        <v>1.06918343357296</v>
       </c>
       <c r="K18">
-        <v>1.101251692856087</v>
+        <v>1.071043401936747</v>
       </c>
       <c r="L18">
-        <v>1.114114959024331</v>
+        <v>1.074473517766567</v>
       </c>
       <c r="M18">
-        <v>1.118141393317058</v>
+        <v>1.07885606926886</v>
       </c>
       <c r="N18">
-        <v>1.105730572896079</v>
+        <v>1.070701796685688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.098567776874516</v>
+        <v>1.04436879983083</v>
       </c>
       <c r="D19">
-        <v>1.098229522778441</v>
+        <v>1.058732194459686</v>
       </c>
       <c r="E19">
-        <v>1.111148172079602</v>
+        <v>1.062293068265477</v>
       </c>
       <c r="F19">
-        <v>1.115186075983061</v>
+        <v>1.066738296821949</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.068305209497435</v>
+        <v>1.063309102654984</v>
       </c>
       <c r="J19">
-        <v>1.104258280243118</v>
+        <v>1.069728938690347</v>
       </c>
       <c r="K19">
-        <v>1.101339310710567</v>
+        <v>1.071549171758652</v>
       </c>
       <c r="L19">
-        <v>1.114219531247158</v>
+        <v>1.075057455916878</v>
       </c>
       <c r="M19">
-        <v>1.118245622375772</v>
+        <v>1.07943765896089</v>
       </c>
       <c r="N19">
-        <v>1.105826453661259</v>
+        <v>1.071248076482912</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.098024213776016</v>
+        <v>1.041246858854383</v>
       </c>
       <c r="D20">
-        <v>1.097776285745354</v>
+        <v>1.05615183177125</v>
       </c>
       <c r="E20">
-        <v>1.110619726445823</v>
+        <v>1.05935770995796</v>
       </c>
       <c r="F20">
-        <v>1.114659424090756</v>
+        <v>1.063815744362893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.068107654739012</v>
+        <v>1.061983225661666</v>
       </c>
       <c r="J20">
-        <v>1.103829925644645</v>
+        <v>1.067275421843612</v>
       </c>
       <c r="K20">
-        <v>1.10094729678667</v>
+        <v>1.069274297819774</v>
       </c>
       <c r="L20">
-        <v>1.113751718362691</v>
+        <v>1.072431381437257</v>
       </c>
       <c r="M20">
-        <v>1.117779345668535</v>
+        <v>1.076822185188057</v>
       </c>
       <c r="N20">
-        <v>1.105397490750123</v>
+        <v>1.068791075360832</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.096254777991657</v>
+        <v>1.030777082263394</v>
       </c>
       <c r="D21">
-        <v>1.096300585750393</v>
+        <v>1.047505222619375</v>
       </c>
       <c r="E21">
-        <v>1.108899891473316</v>
+        <v>1.049524266035538</v>
       </c>
       <c r="F21">
-        <v>1.112945450690694</v>
+        <v>1.05402618459416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06746229899969</v>
+        <v>1.057521414305823</v>
       </c>
       <c r="J21">
-        <v>1.102434440018446</v>
+        <v>1.059042095840817</v>
       </c>
       <c r="K21">
-        <v>1.099669874541552</v>
+        <v>1.061639220820888</v>
       </c>
       <c r="L21">
-        <v>1.11222830012084</v>
+        <v>1.063624439559079</v>
       </c>
       <c r="M21">
-        <v>1.11626094780577</v>
+        <v>1.068051538779678</v>
       </c>
       <c r="N21">
-        <v>1.104000023374269</v>
+        <v>1.060546057090737</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.095140483521172</v>
+        <v>1.023926966177273</v>
       </c>
       <c r="D22">
-        <v>1.095371045223976</v>
+        <v>1.04185420028721</v>
       </c>
       <c r="E22">
-        <v>1.107817134866009</v>
+        <v>1.043099379131597</v>
       </c>
       <c r="F22">
-        <v>1.111866402998789</v>
+        <v>1.047630805760175</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.067054153379236</v>
+        <v>1.054590833971238</v>
       </c>
       <c r="J22">
-        <v>1.101554810302814</v>
+        <v>1.053651757439799</v>
       </c>
       <c r="K22">
-        <v>1.098864415196457</v>
+        <v>1.056639744083579</v>
       </c>
       <c r="L22">
-        <v>1.111268500290149</v>
+        <v>1.05786279511313</v>
       </c>
       <c r="M22">
-        <v>1.115304324959755</v>
+        <v>1.062314270069744</v>
       </c>
       <c r="N22">
-        <v>1.103119144483547</v>
+        <v>1.055148063790909</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.095731363936584</v>
+        <v>1.027585211066481</v>
       </c>
       <c r="D23">
-        <v>1.095863976636331</v>
+        <v>1.044871435312917</v>
       </c>
       <c r="E23">
-        <v>1.108391262783813</v>
+        <v>1.046529654951824</v>
       </c>
       <c r="F23">
-        <v>1.112438562485433</v>
+        <v>1.051045243806062</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.067270746405319</v>
+        <v>1.056156908617646</v>
       </c>
       <c r="J23">
-        <v>1.102021332721351</v>
+        <v>1.056530709709098</v>
       </c>
       <c r="K23">
-        <v>1.099291624039321</v>
+        <v>1.059310005528378</v>
       </c>
       <c r="L23">
-        <v>1.111777497310426</v>
+        <v>1.060939661290456</v>
       </c>
       <c r="M23">
-        <v>1.115811635830335</v>
+        <v>1.065378056207451</v>
       </c>
       <c r="N23">
-        <v>1.103586329417429</v>
+        <v>1.058031104502651</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.098053849121937</v>
+        <v>1.041418175304722</v>
       </c>
       <c r="D24">
-        <v>1.097800997601421</v>
+        <v>1.056293405586425</v>
       </c>
       <c r="E24">
-        <v>1.1106485361196</v>
+        <v>1.059518750092138</v>
       </c>
       <c r="F24">
-        <v>1.114688135885007</v>
+        <v>1.063976078471435</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.068118434065112</v>
+        <v>1.062056041023309</v>
       </c>
       <c r="J24">
-        <v>1.103853283846197</v>
+        <v>1.067410078913066</v>
       </c>
       <c r="K24">
-        <v>1.100968674561202</v>
+        <v>1.069399155233185</v>
       </c>
       <c r="L24">
-        <v>1.113777225915233</v>
+        <v>1.07257548901801</v>
       </c>
       <c r="M24">
-        <v>1.117804769394275</v>
+        <v>1.076965708424734</v>
       </c>
       <c r="N24">
-        <v>1.105420882123</v>
+        <v>1.06892592365877</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.100741524293793</v>
+        <v>1.056443108073428</v>
       </c>
       <c r="D25">
-        <v>1.100041595391321</v>
+        <v>1.068719892458837</v>
       </c>
       <c r="E25">
-        <v>1.113262035993304</v>
+        <v>1.073659381839128</v>
       </c>
       <c r="F25">
-        <v>1.117292799165254</v>
+        <v>1.078056269446745</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.069091869165148</v>
+        <v>1.068414101630986</v>
       </c>
       <c r="J25">
-        <v>1.105969684325254</v>
+        <v>1.07920959061853</v>
       </c>
       <c r="K25">
-        <v>1.102905035091145</v>
+        <v>1.080337492875031</v>
       </c>
       <c r="L25">
-        <v>1.116089495851349</v>
+        <v>1.085212547659099</v>
       </c>
       <c r="M25">
-        <v>1.120109472358442</v>
+        <v>1.089552699908276</v>
       </c>
       <c r="N25">
-        <v>1.107540288133492</v>
+        <v>1.080742192024278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.067724699467326</v>
+        <v>1.006625658374567</v>
       </c>
       <c r="D2">
-        <v>1.07806182502205</v>
+        <v>1.028512095885916</v>
       </c>
       <c r="E2">
-        <v>1.084299037755296</v>
+        <v>1.014757128687161</v>
       </c>
       <c r="F2">
-        <v>1.088652432372134</v>
+        <v>1.034989942978096</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073145742488465</v>
+        <v>1.047465514412368</v>
       </c>
       <c r="J2">
-        <v>1.08805263873507</v>
+        <v>1.028609987114008</v>
       </c>
       <c r="K2">
-        <v>1.08853109063366</v>
+        <v>1.039588004228246</v>
       </c>
       <c r="L2">
-        <v>1.094696790060048</v>
+        <v>1.026014631424488</v>
       </c>
       <c r="M2">
-        <v>1.099000868794919</v>
+        <v>1.045982419846234</v>
       </c>
       <c r="N2">
-        <v>1.089597798283456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012629586207066</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044964377847839</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039062424992967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075561117424422</v>
+        <v>1.011614381546162</v>
       </c>
       <c r="D3">
-        <v>1.084555501196374</v>
+        <v>1.031774133072519</v>
       </c>
       <c r="E3">
-        <v>1.091700753414532</v>
+        <v>1.019245480337144</v>
       </c>
       <c r="F3">
-        <v>1.096024872433569</v>
+        <v>1.038204103041799</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076406686720439</v>
+        <v>1.048473047499365</v>
       </c>
       <c r="J3">
-        <v>1.094184321807469</v>
+        <v>1.031793357580491</v>
       </c>
       <c r="K3">
-        <v>1.094209783525826</v>
+        <v>1.042015979999424</v>
       </c>
       <c r="L3">
-        <v>1.101280825415212</v>
+        <v>1.029637894089599</v>
       </c>
       <c r="M3">
-        <v>1.10556060704328</v>
+        <v>1.048370421488555</v>
       </c>
       <c r="N3">
-        <v>1.095738189049131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013776920722315</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046854306993539</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040776553133697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080482425584738</v>
+        <v>1.014775328407194</v>
       </c>
       <c r="D4">
-        <v>1.088635101992003</v>
+        <v>1.033844851452834</v>
       </c>
       <c r="E4">
-        <v>1.096353805543441</v>
+        <v>1.02209513417086</v>
       </c>
       <c r="F4">
-        <v>1.100659927381825</v>
+        <v>1.040247648388901</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078442284778826</v>
+        <v>1.049101391535477</v>
       </c>
       <c r="J4">
-        <v>1.098029661823867</v>
+        <v>1.033808485240336</v>
       </c>
       <c r="K4">
-        <v>1.097769710192571</v>
+        <v>1.043551263295753</v>
       </c>
       <c r="L4">
-        <v>1.105413426540763</v>
+        <v>1.031934008095404</v>
       </c>
       <c r="M4">
-        <v>1.10967826733426</v>
+        <v>1.049883424730928</v>
       </c>
       <c r="N4">
-        <v>1.09958898988942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014502264498619</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048051736210277</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041863022324074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.082517586169741</v>
+        <v>1.016094364737794</v>
       </c>
       <c r="D5">
-        <v>1.090322473221911</v>
+        <v>1.034711996870724</v>
       </c>
       <c r="E5">
-        <v>1.098279109195132</v>
+        <v>1.023286136621566</v>
       </c>
       <c r="F5">
-        <v>1.102577875558736</v>
+        <v>1.041102786500333</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079281083428488</v>
+        <v>1.049363081810249</v>
       </c>
       <c r="J5">
-        <v>1.099618523747894</v>
+        <v>1.034650783432453</v>
       </c>
       <c r="K5">
-        <v>1.099240308533394</v>
+        <v>1.044194215768391</v>
       </c>
       <c r="L5">
-        <v>1.107121841128835</v>
+        <v>1.032893648370965</v>
       </c>
       <c r="M5">
-        <v>1.111380574993911</v>
+        <v>1.050516394548252</v>
       </c>
       <c r="N5">
-        <v>1.101180108179624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014806103219283</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048552684034986</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04232479084924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0828573742193</v>
+        <v>1.016321794670484</v>
       </c>
       <c r="D6">
-        <v>1.090604209670829</v>
+        <v>1.034864229332596</v>
       </c>
       <c r="E6">
-        <v>1.098600617403919</v>
+        <v>1.023492203399794</v>
       </c>
       <c r="F6">
-        <v>1.102898160661202</v>
+        <v>1.041251264709838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07942095008396</v>
+        <v>1.049410432244715</v>
       </c>
       <c r="J6">
-        <v>1.099883717965657</v>
+        <v>1.034798297205772</v>
       </c>
       <c r="K6">
-        <v>1.099485743593207</v>
+        <v>1.044308783669451</v>
       </c>
       <c r="L6">
-        <v>1.107407040199877</v>
+        <v>1.033060873577534</v>
       </c>
       <c r="M6">
-        <v>1.11166475855047</v>
+        <v>1.050627565424804</v>
       </c>
       <c r="N6">
-        <v>1.101445679003594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014860386117869</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048640667356067</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04241451604333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.08050974961714</v>
+        <v>1.014811541831787</v>
       </c>
       <c r="D7">
-        <v>1.08865775555978</v>
+        <v>1.033875828060378</v>
       </c>
       <c r="E7">
-        <v>1.096379650447901</v>
+        <v>1.022129538459988</v>
       </c>
       <c r="F7">
-        <v>1.100685673194748</v>
+        <v>1.040273646163867</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.078453558433923</v>
+        <v>1.049115005866816</v>
       </c>
       <c r="J7">
-        <v>1.098050999233324</v>
+        <v>1.033837853337991</v>
       </c>
       <c r="K7">
-        <v>1.097789460733907</v>
+        <v>1.043579025414133</v>
       </c>
       <c r="L7">
-        <v>1.105436366066252</v>
+        <v>1.031965104697724</v>
       </c>
       <c r="M7">
-        <v>1.109701124590188</v>
+        <v>1.049906291198305</v>
       </c>
       <c r="N7">
-        <v>1.099610357600445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014515827841693</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048069833298809</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041902706762808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070405244620187</v>
+        <v>1.008349572440264</v>
       </c>
       <c r="D8">
-        <v>1.080282692914149</v>
+        <v>1.029647510690515</v>
       </c>
       <c r="E8">
-        <v>1.086829849515447</v>
+        <v>1.016309129615834</v>
       </c>
       <c r="F8">
-        <v>1.091173144309692</v>
+        <v>1.036102343026947</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074263748395806</v>
+        <v>1.047823849633574</v>
       </c>
       <c r="J8">
-        <v>1.090151162919158</v>
+        <v>1.029718312960399</v>
       </c>
       <c r="K8">
-        <v>1.090474854676178</v>
+        <v>1.04044032184077</v>
       </c>
       <c r="L8">
-        <v>1.096949372424875</v>
+        <v>1.027272623738776</v>
       </c>
       <c r="M8">
-        <v>1.101245070037293</v>
+        <v>1.046814521212615</v>
       </c>
       <c r="N8">
-        <v>1.09169930261259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013033172796074</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045622925946873</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039687964167876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05135585531342</v>
+        <v>0.9963888068845407</v>
       </c>
       <c r="D9">
-        <v>1.064510317694778</v>
+        <v>1.021843410478207</v>
       </c>
       <c r="E9">
-        <v>1.068867789493857</v>
+        <v>1.005580934234956</v>
       </c>
       <c r="F9">
-        <v>1.073284816325737</v>
+        <v>1.028436868717692</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066267914935692</v>
+        <v>1.045345520607627</v>
       </c>
       <c r="J9">
-        <v>1.075216908813703</v>
+        <v>1.02206973333786</v>
       </c>
       <c r="K9">
-        <v>1.076636810751982</v>
+        <v>1.034591762752577</v>
       </c>
       <c r="L9">
-        <v>1.080934294079637</v>
+        <v>1.018584108998579</v>
       </c>
       <c r="M9">
-        <v>1.085291138019829</v>
+        <v>1.041084830681946</v>
       </c>
       <c r="N9">
-        <v>1.076743840153321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010268271443116</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041088277909026</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035549454506147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037662235093564</v>
+        <v>0.9881053601515422</v>
       </c>
       <c r="D10">
-        <v>1.053190187486982</v>
+        <v>1.016495682181782</v>
       </c>
       <c r="E10">
-        <v>1.055989110296661</v>
+        <v>0.9981960614582724</v>
       </c>
       <c r="F10">
-        <v>1.060462006063384</v>
+        <v>1.023249449418481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060458154457147</v>
+        <v>1.043612204214096</v>
       </c>
       <c r="J10">
-        <v>1.064457349405914</v>
+        <v>1.016798983567309</v>
       </c>
       <c r="K10">
-        <v>1.06666118954202</v>
+        <v>1.030573355160177</v>
       </c>
       <c r="L10">
-        <v>1.069416052019094</v>
+        <v>1.012597963138573</v>
       </c>
       <c r="M10">
-        <v>1.073819152889208</v>
+        <v>1.037211243782045</v>
       </c>
       <c r="N10">
-        <v>1.065969000937035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008374718087258</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038074053191239</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032725020191924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031455463221419</v>
+        <v>0.9852022096799807</v>
       </c>
       <c r="D11">
-        <v>1.048065132986137</v>
+        <v>1.014854953724376</v>
       </c>
       <c r="E11">
-        <v>1.0501609196569</v>
+        <v>0.9956929586185037</v>
       </c>
       <c r="F11">
-        <v>1.054659950513886</v>
+        <v>1.022046211780907</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0578111769309</v>
+        <v>1.043246698720829</v>
       </c>
       <c r="J11">
-        <v>1.05957577922657</v>
+        <v>1.015203819883135</v>
       </c>
       <c r="K11">
-        <v>1.062134175361008</v>
+        <v>1.029502061333178</v>
       </c>
       <c r="L11">
-        <v>1.064195061573541</v>
+        <v>1.010696559100241</v>
       </c>
       <c r="M11">
-        <v>1.068619774034891</v>
+        <v>1.036564009951194</v>
       </c>
       <c r="N11">
-        <v>1.061080498368112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007930380797611</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037998290596376</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032000531536229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029104209517666</v>
+        <v>0.984397978300117</v>
       </c>
       <c r="D12">
-        <v>1.046124706163895</v>
+        <v>1.014503022031084</v>
       </c>
       <c r="E12">
-        <v>1.047954587172397</v>
+        <v>0.9950365377502784</v>
       </c>
       <c r="F12">
-        <v>1.0524636532225</v>
+        <v>1.021990515379376</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056806501322856</v>
+        <v>1.043260709487523</v>
       </c>
       <c r="J12">
-        <v>1.057725935237098</v>
+        <v>1.014877642624596</v>
       </c>
       <c r="K12">
-        <v>1.060418547343659</v>
+        <v>1.029357543630139</v>
       </c>
       <c r="L12">
-        <v>1.062217319839741</v>
+        <v>1.010259451689868</v>
       </c>
       <c r="M12">
-        <v>1.066650325649856</v>
+        <v>1.03670820003304</v>
       </c>
       <c r="N12">
-        <v>1.059228027387995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007917215899468</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038438847621862</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.031898352078374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029610705386056</v>
+        <v>0.985185936826502</v>
       </c>
       <c r="D13">
-        <v>1.04654265348287</v>
+        <v>1.015148032234485</v>
       </c>
       <c r="E13">
-        <v>1.048429794656199</v>
+        <v>0.9957849573472632</v>
       </c>
       <c r="F13">
-        <v>1.052936692675692</v>
+        <v>1.022846467168587</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057023009754428</v>
+        <v>1.043586777576502</v>
       </c>
       <c r="J13">
-        <v>1.058124445331039</v>
+        <v>1.015535793000845</v>
       </c>
       <c r="K13">
-        <v>1.060788149334047</v>
+        <v>1.029947582931709</v>
       </c>
       <c r="L13">
-        <v>1.062643350096458</v>
+        <v>1.010949051900647</v>
       </c>
       <c r="M13">
-        <v>1.067074564426125</v>
+        <v>1.037506064658785</v>
       </c>
       <c r="N13">
-        <v>1.05962710341198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008249065638215</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039346388415517</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032313030164075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031262067596428</v>
+        <v>0.9864583178096419</v>
       </c>
       <c r="D14">
-        <v>1.047905506464539</v>
+        <v>1.016051422456423</v>
       </c>
       <c r="E14">
-        <v>1.049979412798518</v>
+        <v>0.9969449965203893</v>
       </c>
       <c r="F14">
-        <v>1.054479266263029</v>
+        <v>1.023857693070169</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057728579023665</v>
+        <v>1.043955962733479</v>
       </c>
       <c r="J14">
-        <v>1.059423637243747</v>
+        <v>1.016441979532162</v>
       </c>
       <c r="K14">
-        <v>1.061993074782404</v>
+        <v>1.030693431276455</v>
       </c>
       <c r="L14">
-        <v>1.064032385839029</v>
+        <v>1.011941801451815</v>
       </c>
       <c r="M14">
-        <v>1.068457778229962</v>
+        <v>1.038359687787114</v>
       </c>
       <c r="N14">
-        <v>1.060928140326223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008637654126169</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040194444551992</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032841802675604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032273327164195</v>
+        <v>0.9871228018618509</v>
       </c>
       <c r="D15">
-        <v>1.048740232131776</v>
+        <v>1.016498923945868</v>
       </c>
       <c r="E15">
-        <v>1.050928568376321</v>
+        <v>0.9975422051654455</v>
       </c>
       <c r="F15">
-        <v>1.055424126003045</v>
+        <v>1.024319371847848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.058160402454697</v>
+        <v>1.044119640295594</v>
       </c>
       <c r="J15">
-        <v>1.060219158915129</v>
+        <v>1.01688687814495</v>
       </c>
       <c r="K15">
-        <v>1.062730857471367</v>
+        <v>1.031046022970683</v>
       </c>
       <c r="L15">
-        <v>1.064883015928747</v>
+        <v>1.012438434915811</v>
       </c>
       <c r="M15">
-        <v>1.069304857372624</v>
+        <v>1.038727320862047</v>
       </c>
       <c r="N15">
-        <v>1.061724791729626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008811830876884</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040522544887559</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033096987023294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038067976038493</v>
+        <v>0.990491061197028</v>
       </c>
       <c r="D16">
-        <v>1.053525351210788</v>
+        <v>1.018650593608106</v>
       </c>
       <c r="E16">
-        <v>1.056370303521652</v>
+        <v>1.000531095883637</v>
       </c>
       <c r="F16">
-        <v>1.060841508642011</v>
+        <v>1.026387179050136</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060630915503992</v>
+        <v>1.044809832595747</v>
       </c>
       <c r="J16">
-        <v>1.064776372168136</v>
+        <v>1.019009086262641</v>
       </c>
       <c r="K16">
-        <v>1.066957020301383</v>
+        <v>1.032655363958034</v>
       </c>
       <c r="L16">
-        <v>1.069757356099202</v>
+        <v>1.014854118276444</v>
       </c>
       <c r="M16">
-        <v>1.074159058319535</v>
+        <v>1.040260478269537</v>
       </c>
       <c r="N16">
-        <v>1.066288476748172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009555083280178</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041695657695432</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034238023107427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041625817286754</v>
+        <v>0.9924085488306272</v>
       </c>
       <c r="D17">
-        <v>1.056465002083123</v>
+        <v>1.019828697883227</v>
       </c>
       <c r="E17">
-        <v>1.059713942647587</v>
+        <v>1.002217923832077</v>
       </c>
       <c r="F17">
-        <v>1.064170415812827</v>
+        <v>1.027439258145788</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062144287111328</v>
+        <v>1.045143287610421</v>
       </c>
       <c r="J17">
-        <v>1.067573285255318</v>
+        <v>1.020161613892907</v>
       </c>
       <c r="K17">
-        <v>1.069550483513646</v>
+        <v>1.033497766662107</v>
       </c>
       <c r="L17">
-        <v>1.072750152605306</v>
+        <v>1.016187176246064</v>
       </c>
       <c r="M17">
-        <v>1.077139664175096</v>
+        <v>1.040982694987885</v>
       </c>
       <c r="N17">
-        <v>1.069089361772748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009921376657401</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042137593026119</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034836224597635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043674591673137</v>
+        <v>0.9932409138161875</v>
       </c>
       <c r="D18">
-        <v>1.058158336256656</v>
+        <v>1.020251031477152</v>
       </c>
       <c r="E18">
-        <v>1.061640224124933</v>
+        <v>1.00292041803413</v>
       </c>
       <c r="F18">
-        <v>1.066088289244741</v>
+        <v>1.027664986673971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.063014470488164</v>
+        <v>1.045185820152323</v>
       </c>
       <c r="J18">
-        <v>1.06918343357296</v>
+        <v>1.020561725855256</v>
       </c>
       <c r="K18">
-        <v>1.071043401936747</v>
+        <v>1.033729127516505</v>
       </c>
       <c r="L18">
-        <v>1.074473517766567</v>
+        <v>1.016688930952413</v>
       </c>
       <c r="M18">
-        <v>1.07885606926886</v>
+        <v>1.041022682134681</v>
       </c>
       <c r="N18">
-        <v>1.070701796685688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009984653879183</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041931753900329</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034988146614564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04436879983083</v>
+        <v>0.9931240781149537</v>
       </c>
       <c r="D19">
-        <v>1.058732194459686</v>
+        <v>1.02002206052538</v>
       </c>
       <c r="E19">
-        <v>1.062293068265477</v>
+        <v>1.002763608555283</v>
       </c>
       <c r="F19">
-        <v>1.066738296821949</v>
+        <v>1.027161870881561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063309102654984</v>
+        <v>1.044985980896155</v>
       </c>
       <c r="J19">
-        <v>1.069728938690347</v>
+        <v>1.020313227327193</v>
       </c>
       <c r="K19">
-        <v>1.071549171758652</v>
+        <v>1.033441170979194</v>
       </c>
       <c r="L19">
-        <v>1.075057455916878</v>
+        <v>1.016470520112903</v>
       </c>
       <c r="M19">
-        <v>1.07943765896089</v>
+        <v>1.040465545300796</v>
       </c>
       <c r="N19">
-        <v>1.071248076482912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00979808074508</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041166046592884</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034790959317231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041246858854383</v>
+        <v>0.9903120032221622</v>
       </c>
       <c r="D20">
-        <v>1.05615183177125</v>
+        <v>1.017938177049161</v>
       </c>
       <c r="E20">
-        <v>1.05935770995796</v>
+        <v>1.000166072276635</v>
       </c>
       <c r="F20">
-        <v>1.063815744362893</v>
+        <v>1.024638923329135</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061983225661666</v>
+        <v>1.044095799142667</v>
       </c>
       <c r="J20">
-        <v>1.067275421843612</v>
+        <v>1.018221557627906</v>
       </c>
       <c r="K20">
-        <v>1.069274297819774</v>
+        <v>1.031672772121968</v>
       </c>
       <c r="L20">
-        <v>1.072431381437257</v>
+        <v>1.014206002132149</v>
       </c>
       <c r="M20">
-        <v>1.076822185188057</v>
+        <v>1.038261934300766</v>
       </c>
       <c r="N20">
-        <v>1.068791075360832</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008895902419692</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038895010364143</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033544569179634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030777082263394</v>
+        <v>0.9839109306031262</v>
       </c>
       <c r="D21">
-        <v>1.047505222619375</v>
+        <v>1.013771018258854</v>
       </c>
       <c r="E21">
-        <v>1.049524266035538</v>
+        <v>0.9944575041803617</v>
       </c>
       <c r="F21">
-        <v>1.05402618459416</v>
+        <v>1.020529158314338</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057521414305823</v>
+        <v>1.042690374493641</v>
       </c>
       <c r="J21">
-        <v>1.059042095840817</v>
+        <v>1.014097078351619</v>
       </c>
       <c r="K21">
-        <v>1.061639220820888</v>
+        <v>1.028496108301818</v>
       </c>
       <c r="L21">
-        <v>1.063624439559079</v>
+        <v>1.009544647190175</v>
       </c>
       <c r="M21">
-        <v>1.068051538779678</v>
+        <v>1.035131764867246</v>
       </c>
       <c r="N21">
-        <v>1.060546057090737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00738902777601</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036376813845807</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031301792463845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023926966177273</v>
+        <v>0.9798102727022143</v>
       </c>
       <c r="D22">
-        <v>1.04185420028721</v>
+        <v>1.01111506933266</v>
       </c>
       <c r="E22">
-        <v>1.043099379131597</v>
+        <v>0.9908115903299868</v>
       </c>
       <c r="F22">
-        <v>1.047630805760175</v>
+        <v>1.017943182824976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054590833971238</v>
+        <v>1.041788718788423</v>
       </c>
       <c r="J22">
-        <v>1.053651757439799</v>
+        <v>1.01146292114194</v>
       </c>
       <c r="K22">
-        <v>1.056639744083579</v>
+        <v>1.02646950419859</v>
       </c>
       <c r="L22">
-        <v>1.05786279511313</v>
+        <v>1.006567295747401</v>
       </c>
       <c r="M22">
-        <v>1.062314270069744</v>
+        <v>1.033167369725052</v>
       </c>
       <c r="N22">
-        <v>1.055148063790909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006429284906333</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034822116133715</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029855318277725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027585211066481</v>
+        <v>0.9819747069417797</v>
       </c>
       <c r="D23">
-        <v>1.044871435312917</v>
+        <v>1.012509366681034</v>
       </c>
       <c r="E23">
-        <v>1.046529654951824</v>
+        <v>0.9927332694517684</v>
       </c>
       <c r="F23">
-        <v>1.051045243806062</v>
+        <v>1.019304419569375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056156908617646</v>
+        <v>1.042259368136922</v>
       </c>
       <c r="J23">
-        <v>1.056530709709098</v>
+        <v>1.012847233318976</v>
       </c>
       <c r="K23">
-        <v>1.059310005528378</v>
+        <v>1.027529849208664</v>
       </c>
       <c r="L23">
-        <v>1.060939661290456</v>
+        <v>1.008133884286863</v>
       </c>
       <c r="M23">
-        <v>1.065378056207451</v>
+        <v>1.034198724910911</v>
       </c>
       <c r="N23">
-        <v>1.058031104502651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006930252988587</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035638370638485</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030595346035629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041418175304722</v>
+        <v>0.9903134710342083</v>
       </c>
       <c r="D24">
-        <v>1.056293405586425</v>
+        <v>1.017907434980066</v>
       </c>
       <c r="E24">
-        <v>1.059518750092138</v>
+        <v>1.000157357870132</v>
       </c>
       <c r="F24">
-        <v>1.063976078471435</v>
+        <v>1.024576552743267</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.062056041023309</v>
+        <v>1.044063335912352</v>
       </c>
       <c r="J24">
-        <v>1.067410078913066</v>
+        <v>1.018189563112619</v>
       </c>
       <c r="K24">
-        <v>1.069399155233185</v>
+        <v>1.031627208360062</v>
       </c>
       <c r="L24">
-        <v>1.07257548901801</v>
+        <v>1.014181710691356</v>
       </c>
       <c r="M24">
-        <v>1.076965708424734</v>
+        <v>1.038185398023278</v>
       </c>
       <c r="N24">
-        <v>1.06892592365877</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008867994507341</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038793569576796</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033484862297339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056443108073428</v>
+        <v>0.999581011040114</v>
       </c>
       <c r="D25">
-        <v>1.068719892458837</v>
+        <v>1.023933288982368</v>
       </c>
       <c r="E25">
-        <v>1.073659381839128</v>
+        <v>1.008441225237299</v>
       </c>
       <c r="F25">
-        <v>1.078056269446745</v>
+        <v>1.030479366717026</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068414101630986</v>
+        <v>1.046026137161428</v>
       </c>
       <c r="J25">
-        <v>1.07920959061853</v>
+        <v>1.024122484067074</v>
       </c>
       <c r="K25">
-        <v>1.080337492875031</v>
+        <v>1.036171094283984</v>
       </c>
       <c r="L25">
-        <v>1.085212547659099</v>
+        <v>1.020909900225721</v>
       </c>
       <c r="M25">
-        <v>1.089552699908276</v>
+        <v>1.042622262379759</v>
       </c>
       <c r="N25">
-        <v>1.080742192024278</v>
+        <v>1.011016417857153</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042305050000741</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036694761383469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006625658374567</v>
+        <v>1.006320749835523</v>
       </c>
       <c r="D2">
-        <v>1.028512095885916</v>
+        <v>1.027754459576708</v>
       </c>
       <c r="E2">
-        <v>1.014757128687161</v>
+        <v>1.014454217196688</v>
       </c>
       <c r="F2">
-        <v>1.034989942978096</v>
+        <v>1.034512649600164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047465514412368</v>
+        <v>1.047220139454577</v>
       </c>
       <c r="J2">
-        <v>1.028609987114008</v>
+        <v>1.028314038045354</v>
       </c>
       <c r="K2">
-        <v>1.039588004228246</v>
+        <v>1.038840211906924</v>
       </c>
       <c r="L2">
-        <v>1.026014631424488</v>
+        <v>1.025715788635934</v>
       </c>
       <c r="M2">
-        <v>1.045982419846234</v>
+        <v>1.045511229207453</v>
       </c>
       <c r="N2">
-        <v>1.012629586207066</v>
+        <v>1.014167372843064</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044964377847839</v>
+        <v>1.044591464245752</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039062424992967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038542440314663</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022175184532652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011614381546162</v>
+        <v>1.010960279768957</v>
       </c>
       <c r="D3">
-        <v>1.031774133072519</v>
+        <v>1.03067720678497</v>
       </c>
       <c r="E3">
-        <v>1.019245480337144</v>
+        <v>1.018594920106827</v>
       </c>
       <c r="F3">
-        <v>1.038204103041799</v>
+        <v>1.037471314575732</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048473047499365</v>
+        <v>1.048071652338917</v>
       </c>
       <c r="J3">
-        <v>1.031793357580491</v>
+        <v>1.031156551328133</v>
       </c>
       <c r="K3">
-        <v>1.042015979999424</v>
+        <v>1.04093205514449</v>
       </c>
       <c r="L3">
-        <v>1.029637894089599</v>
+        <v>1.028995277904589</v>
       </c>
       <c r="M3">
-        <v>1.048370421488555</v>
+        <v>1.047646182121417</v>
       </c>
       <c r="N3">
-        <v>1.013776920722315</v>
+        <v>1.014975465731526</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046854306993539</v>
+        <v>1.046281124865497</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040776553133697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040018612315947</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022652309261778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014775328407194</v>
+        <v>1.013903624400497</v>
       </c>
       <c r="D4">
-        <v>1.033844851452834</v>
+        <v>1.032535270686413</v>
       </c>
       <c r="E4">
-        <v>1.02209513417086</v>
+        <v>1.021227547919197</v>
       </c>
       <c r="F4">
-        <v>1.040247648388901</v>
+        <v>1.03935506057871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049101391535477</v>
+        <v>1.048602208019374</v>
       </c>
       <c r="J4">
-        <v>1.033808485240336</v>
+        <v>1.032958238978787</v>
       </c>
       <c r="K4">
-        <v>1.043551263295753</v>
+        <v>1.042256262560255</v>
       </c>
       <c r="L4">
-        <v>1.031934008095404</v>
+        <v>1.031076351820114</v>
       </c>
       <c r="M4">
-        <v>1.049883424730928</v>
+        <v>1.049000619802138</v>
       </c>
       <c r="N4">
-        <v>1.014502264498619</v>
+        <v>1.015487216875202</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048051736210277</v>
+        <v>1.047353062190187</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041863022324074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040955912248957</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022951742895614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016094364737794</v>
+        <v>1.015132473014374</v>
       </c>
       <c r="D5">
-        <v>1.034711996870724</v>
+        <v>1.033314105571728</v>
       </c>
       <c r="E5">
-        <v>1.023286136621566</v>
+        <v>1.02232851894914</v>
       </c>
       <c r="F5">
-        <v>1.041102786500333</v>
+        <v>1.040143888583264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049363081810249</v>
+        <v>1.048823230947291</v>
       </c>
       <c r="J5">
-        <v>1.034650783432453</v>
+        <v>1.033711848073049</v>
       </c>
       <c r="K5">
-        <v>1.044194215768391</v>
+        <v>1.042811470840006</v>
       </c>
       <c r="L5">
-        <v>1.032893648370965</v>
+        <v>1.031946688143992</v>
       </c>
       <c r="M5">
-        <v>1.050516394548252</v>
+        <v>1.049567725419753</v>
       </c>
       <c r="N5">
-        <v>1.014806103219283</v>
+        <v>1.015701805295671</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048552684034986</v>
+        <v>1.047801883912455</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04232479084924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041356348334965</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02307732248343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016321794670484</v>
+        <v>1.015344138828254</v>
       </c>
       <c r="D6">
-        <v>1.034864229332596</v>
+        <v>1.033451009668201</v>
       </c>
       <c r="E6">
-        <v>1.023492203399794</v>
+        <v>1.022518846036397</v>
       </c>
       <c r="F6">
-        <v>1.041251264709838</v>
+        <v>1.04028082982972</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049410432244715</v>
+        <v>1.04886344823793</v>
       </c>
       <c r="J6">
-        <v>1.034798297205772</v>
+        <v>1.03384385144261</v>
       </c>
       <c r="K6">
-        <v>1.044308783669451</v>
+        <v>1.042910805806081</v>
       </c>
       <c r="L6">
-        <v>1.033060873577534</v>
+        <v>1.032098297264809</v>
       </c>
       <c r="M6">
-        <v>1.050627565424804</v>
+        <v>1.04966743478524</v>
       </c>
       <c r="N6">
-        <v>1.014860386117869</v>
+        <v>1.015740174086486</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048640667356067</v>
+        <v>1.04788079639682</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04241451604333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041436171363442</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023100564652391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014811541831787</v>
+        <v>1.013949240653249</v>
       </c>
       <c r="D7">
-        <v>1.033875828060378</v>
+        <v>1.032572495816087</v>
       </c>
       <c r="E7">
-        <v>1.022129538459988</v>
+        <v>1.021271306851221</v>
       </c>
       <c r="F7">
-        <v>1.040273646163867</v>
+        <v>1.039386442948704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049115005866816</v>
+        <v>1.048618979779112</v>
       </c>
       <c r="J7">
-        <v>1.033837853337991</v>
+        <v>1.032996768401617</v>
       </c>
       <c r="K7">
-        <v>1.043579025414133</v>
+        <v>1.042290197621586</v>
       </c>
       <c r="L7">
-        <v>1.031965104697724</v>
+        <v>1.031116691786829</v>
       </c>
       <c r="M7">
-        <v>1.049906291198305</v>
+        <v>1.049028807956069</v>
       </c>
       <c r="N7">
-        <v>1.014515827841693</v>
+        <v>1.015527193479174</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048069833298809</v>
+        <v>1.047375371014242</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041902706762808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041001959871256</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022962691151317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008349572440264</v>
+        <v>1.007961386364801</v>
       </c>
       <c r="D8">
-        <v>1.029647510690515</v>
+        <v>1.028799986694904</v>
       </c>
       <c r="E8">
-        <v>1.016309129615834</v>
+        <v>1.01592333293719</v>
       </c>
       <c r="F8">
-        <v>1.036102343026947</v>
+        <v>1.035559558343652</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047823849633574</v>
+        <v>1.047538490834672</v>
       </c>
       <c r="J8">
-        <v>1.029718312960399</v>
+        <v>1.029341139628985</v>
       </c>
       <c r="K8">
-        <v>1.04044032184077</v>
+        <v>1.039603478765244</v>
       </c>
       <c r="L8">
-        <v>1.027272623738776</v>
+        <v>1.026891847360203</v>
       </c>
       <c r="M8">
-        <v>1.046814521212615</v>
+        <v>1.046278468714886</v>
       </c>
       <c r="N8">
-        <v>1.013033172796074</v>
+        <v>1.014544305927507</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045622925946873</v>
+        <v>1.045198679200915</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039687964167876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039107274311901</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022356027446524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9963888068845407</v>
+        <v>0.9968686578671659</v>
       </c>
       <c r="D9">
-        <v>1.021843410478207</v>
+        <v>1.021829531941313</v>
       </c>
       <c r="E9">
-        <v>1.005580934234956</v>
+        <v>1.006056442713967</v>
       </c>
       <c r="F9">
-        <v>1.028436868717692</v>
+        <v>1.028524533124637</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045345520607627</v>
+        <v>1.045444035229452</v>
       </c>
       <c r="J9">
-        <v>1.02206973333786</v>
+        <v>1.022532478543819</v>
       </c>
       <c r="K9">
-        <v>1.034591762752577</v>
+        <v>1.034578097270273</v>
       </c>
       <c r="L9">
-        <v>1.018584108998579</v>
+        <v>1.019052016696296</v>
       </c>
       <c r="M9">
-        <v>1.041084830681946</v>
+        <v>1.041171171376355</v>
       </c>
       <c r="N9">
-        <v>1.010268271443116</v>
+        <v>1.012614580927264</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041088277909026</v>
+        <v>1.041156610720733</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035549454506147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035550550169533</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021193455853236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9881053601515422</v>
+        <v>0.9892602885184627</v>
       </c>
       <c r="D10">
-        <v>1.016495682181782</v>
+        <v>1.017109385063859</v>
       </c>
       <c r="E10">
-        <v>0.9981960614582724</v>
+        <v>0.9993379895147332</v>
       </c>
       <c r="F10">
-        <v>1.023249449418481</v>
+        <v>1.0238170309037</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043612204214096</v>
+        <v>1.044000455765331</v>
       </c>
       <c r="J10">
-        <v>1.016798983567309</v>
+        <v>1.0179065861932</v>
       </c>
       <c r="K10">
-        <v>1.030573355160177</v>
+        <v>1.031176446134577</v>
       </c>
       <c r="L10">
-        <v>1.012597963138573</v>
+        <v>1.013719207061515</v>
       </c>
       <c r="M10">
-        <v>1.037211243782045</v>
+        <v>1.037769176822032</v>
       </c>
       <c r="N10">
-        <v>1.008374718087258</v>
+        <v>1.011429007401317</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038074053191239</v>
+        <v>1.038515593600847</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032725020191924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033163893106972</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020407867789808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9852022096799807</v>
+        <v>0.9866134350889245</v>
       </c>
       <c r="D11">
-        <v>1.014854953724376</v>
+        <v>1.015693031628363</v>
       </c>
       <c r="E11">
-        <v>0.9956929586185037</v>
+        <v>0.9970869006257178</v>
       </c>
       <c r="F11">
-        <v>1.022046211780907</v>
+        <v>1.022787606874725</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043246698720829</v>
+        <v>1.043728262110256</v>
       </c>
       <c r="J11">
-        <v>1.015203819883135</v>
+        <v>1.016553913003802</v>
       </c>
       <c r="K11">
-        <v>1.029502061333178</v>
+        <v>1.030324946769158</v>
       </c>
       <c r="L11">
-        <v>1.010696559100241</v>
+        <v>1.012063963630041</v>
       </c>
       <c r="M11">
-        <v>1.036564009951194</v>
+        <v>1.037292207856675</v>
       </c>
       <c r="N11">
-        <v>1.007930380797611</v>
+        <v>1.011371703936135</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037998290596376</v>
+        <v>1.038574286408792</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032000531536229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032598008083505</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020290037231412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.984397978300117</v>
+        <v>0.9858574873165232</v>
       </c>
       <c r="D12">
-        <v>1.014503022031084</v>
+        <v>1.015380979261838</v>
       </c>
       <c r="E12">
-        <v>0.9950365377502784</v>
+        <v>0.9964776406485637</v>
       </c>
       <c r="F12">
-        <v>1.021990515379376</v>
+        <v>1.022762335820076</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043260709487523</v>
+        <v>1.043750460453987</v>
       </c>
       <c r="J12">
-        <v>1.014877642624596</v>
+        <v>1.016272682517392</v>
       </c>
       <c r="K12">
-        <v>1.029357543630139</v>
+        <v>1.030219319751722</v>
       </c>
       <c r="L12">
-        <v>1.010259451689868</v>
+        <v>1.011672636072922</v>
       </c>
       <c r="M12">
-        <v>1.03670820003304</v>
+        <v>1.037466063242539</v>
       </c>
       <c r="N12">
-        <v>1.007917215899468</v>
+        <v>1.011466316149761</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038438847621862</v>
+        <v>1.039038105393736</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031898352078374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03252332749176</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020323029391959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.985185936826502</v>
+        <v>0.9865124276914773</v>
       </c>
       <c r="D13">
-        <v>1.015148032234485</v>
+        <v>1.015908220347246</v>
       </c>
       <c r="E13">
-        <v>0.9957849573472632</v>
+        <v>0.9970948637716144</v>
       </c>
       <c r="F13">
-        <v>1.022846467168587</v>
+        <v>1.023525309572002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043586777576502</v>
+        <v>1.04401091459498</v>
       </c>
       <c r="J13">
-        <v>1.015535793000845</v>
+        <v>1.016804027700981</v>
       </c>
       <c r="K13">
-        <v>1.029947582931709</v>
+        <v>1.030693828339098</v>
       </c>
       <c r="L13">
-        <v>1.010949051900647</v>
+        <v>1.012233712272397</v>
       </c>
       <c r="M13">
-        <v>1.037506064658785</v>
+        <v>1.038172697335811</v>
       </c>
       <c r="N13">
-        <v>1.008249065638215</v>
+        <v>1.011653156715451</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039346388415517</v>
+        <v>1.039873375969523</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032313030164075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032856072720409</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020479771731646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9864583178096419</v>
+        <v>0.9876112166489882</v>
       </c>
       <c r="D14">
-        <v>1.016051422456423</v>
+        <v>1.016659418496064</v>
       </c>
       <c r="E14">
-        <v>0.9969449965203893</v>
+        <v>0.998083814555047</v>
       </c>
       <c r="F14">
-        <v>1.023857693070169</v>
+        <v>1.024416969623691</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043955962733479</v>
+        <v>1.044302043923684</v>
       </c>
       <c r="J14">
-        <v>1.016441979532162</v>
+        <v>1.017545027683354</v>
       </c>
       <c r="K14">
-        <v>1.030693431276455</v>
+        <v>1.03129042183286</v>
       </c>
       <c r="L14">
-        <v>1.011941801451815</v>
+        <v>1.013058974459557</v>
       </c>
       <c r="M14">
-        <v>1.038359687787114</v>
+        <v>1.038909039374956</v>
       </c>
       <c r="N14">
-        <v>1.008637654126169</v>
+        <v>1.011827862145595</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040194444551992</v>
+        <v>1.040628660347872</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032841802675604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033279444735922</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020646377542399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9871228018618509</v>
+        <v>0.9881946087907659</v>
       </c>
       <c r="D15">
-        <v>1.016498923945868</v>
+        <v>1.017036033344773</v>
       </c>
       <c r="E15">
-        <v>0.9975422051654455</v>
+        <v>0.9986011046611248</v>
       </c>
       <c r="F15">
-        <v>1.024319371847848</v>
+        <v>1.024823150866589</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044119640295594</v>
+        <v>1.044431078757885</v>
       </c>
       <c r="J15">
-        <v>1.01688687814495</v>
+        <v>1.017912771105093</v>
       </c>
       <c r="K15">
-        <v>1.031046022970683</v>
+        <v>1.031573486613211</v>
       </c>
       <c r="L15">
-        <v>1.012438434915811</v>
+        <v>1.013477375784797</v>
       </c>
       <c r="M15">
-        <v>1.038727320862047</v>
+        <v>1.039222230467781</v>
       </c>
       <c r="N15">
-        <v>1.008811830876884</v>
+        <v>1.011897262829529</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040522544887559</v>
+        <v>1.040913718661696</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033096987023294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033486034343244</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020717882390458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.990491061197028</v>
+        <v>0.991210832732567</v>
       </c>
       <c r="D16">
-        <v>1.018650593608106</v>
+        <v>1.018877946845061</v>
       </c>
       <c r="E16">
-        <v>1.000531095883637</v>
+        <v>1.00124288174483</v>
       </c>
       <c r="F16">
-        <v>1.026387179050136</v>
+        <v>1.026650193023659</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044809832595747</v>
+        <v>1.044978784434989</v>
       </c>
       <c r="J16">
-        <v>1.019009086262641</v>
+        <v>1.019699640578972</v>
       </c>
       <c r="K16">
-        <v>1.032655363958034</v>
+        <v>1.032878816882792</v>
       </c>
       <c r="L16">
-        <v>1.014854118276444</v>
+        <v>1.015553119902218</v>
       </c>
       <c r="M16">
-        <v>1.040260478269537</v>
+        <v>1.040519067642866</v>
       </c>
       <c r="N16">
-        <v>1.009555083280178</v>
+        <v>1.012174002214417</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041695657695432</v>
+        <v>1.041900051179277</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034238023107427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034412412804691</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021007320329845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9924085488306272</v>
+        <v>0.9929652086531221</v>
       </c>
       <c r="D17">
-        <v>1.019828697883227</v>
+        <v>1.019909490913516</v>
       </c>
       <c r="E17">
-        <v>1.002217923832077</v>
+        <v>1.002768723722071</v>
       </c>
       <c r="F17">
-        <v>1.027439258145788</v>
+        <v>1.027589678662321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045143287610421</v>
+        <v>1.045248960199257</v>
       </c>
       <c r="J17">
-        <v>1.020161613892907</v>
+        <v>1.020696433779777</v>
       </c>
       <c r="K17">
-        <v>1.033497766662107</v>
+        <v>1.033577213311566</v>
       </c>
       <c r="L17">
-        <v>1.016187176246064</v>
+        <v>1.016728380716059</v>
       </c>
       <c r="M17">
-        <v>1.040982694987885</v>
+        <v>1.041130656530275</v>
       </c>
       <c r="N17">
-        <v>1.009921376657401</v>
+        <v>1.012326773410714</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042137593026119</v>
+        <v>1.04225455602366</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034836224597635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034909038805045</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021144495303238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9932409138161875</v>
+        <v>0.9937638832148133</v>
       </c>
       <c r="D18">
-        <v>1.020251031477152</v>
+        <v>1.020299375671582</v>
       </c>
       <c r="E18">
-        <v>1.00292041803413</v>
+        <v>1.00343804598188</v>
       </c>
       <c r="F18">
-        <v>1.027664986673971</v>
+        <v>1.02779174802073</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045185820152323</v>
+        <v>1.04528430039166</v>
       </c>
       <c r="J18">
-        <v>1.020561725855256</v>
+        <v>1.021064571455888</v>
       </c>
       <c r="K18">
-        <v>1.033729127516505</v>
+        <v>1.033776679327857</v>
       </c>
       <c r="L18">
-        <v>1.016688930952413</v>
+        <v>1.017197696995653</v>
       </c>
       <c r="M18">
-        <v>1.041022682134681</v>
+        <v>1.041147404289345</v>
       </c>
       <c r="N18">
-        <v>1.009984653879183</v>
+        <v>1.012335466037698</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041931753900329</v>
+        <v>1.042030366771384</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034988146614564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035037278509925</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021149154787046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9931240781149537</v>
+        <v>0.9937131086177645</v>
       </c>
       <c r="D19">
-        <v>1.02002206052538</v>
+        <v>1.020128207190669</v>
       </c>
       <c r="E19">
-        <v>1.002763608555283</v>
+        <v>1.003346675671293</v>
       </c>
       <c r="F19">
-        <v>1.027161870881561</v>
+        <v>1.027334687336651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I19">
-        <v>1.044985980896155</v>
+        <v>1.045120912710806</v>
       </c>
       <c r="J19">
-        <v>1.020313227327193</v>
+        <v>1.020879719440823</v>
       </c>
       <c r="K19">
-        <v>1.033441170979194</v>
+        <v>1.033545586266928</v>
       </c>
       <c r="L19">
-        <v>1.016470520112903</v>
+        <v>1.017043655366643</v>
       </c>
       <c r="M19">
-        <v>1.040465545300796</v>
+        <v>1.040635593173502</v>
       </c>
       <c r="N19">
-        <v>1.00979808074508</v>
+        <v>1.012207422079592</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041166046592884</v>
+        <v>1.041300540558594</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034790959317231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034880919557685</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021043683915287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9903120032221622</v>
+        <v>0.9912456867295243</v>
       </c>
       <c r="D20">
-        <v>1.017938177049161</v>
+        <v>1.018354514363917</v>
       </c>
       <c r="E20">
-        <v>1.000166072276635</v>
+        <v>1.001089795628266</v>
       </c>
       <c r="F20">
-        <v>1.024638923329135</v>
+        <v>1.025053205067594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044095799142667</v>
+        <v>1.044390435524383</v>
       </c>
       <c r="J20">
-        <v>1.018221557627906</v>
+        <v>1.019118294009049</v>
       </c>
       <c r="K20">
-        <v>1.031672772121968</v>
+        <v>1.032082121228921</v>
       </c>
       <c r="L20">
-        <v>1.014206002132149</v>
+        <v>1.015113509323514</v>
       </c>
       <c r="M20">
-        <v>1.038261934300766</v>
+        <v>1.038669378830792</v>
       </c>
       <c r="N20">
-        <v>1.008895902419692</v>
+        <v>1.011674993516861</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038895010364143</v>
+        <v>1.03921746006675</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033544569179634</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033850527016783</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020621061779903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9839109306031262</v>
+        <v>0.9855716786418834</v>
       </c>
       <c r="D21">
-        <v>1.013771018258854</v>
+        <v>1.014826724765671</v>
       </c>
       <c r="E21">
-        <v>0.9944575041803617</v>
+        <v>0.9960976542543268</v>
       </c>
       <c r="F21">
-        <v>1.020529158314338</v>
+        <v>1.021443605434396</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042690374493641</v>
+        <v>1.043291752067099</v>
       </c>
       <c r="J21">
-        <v>1.014097078351619</v>
+        <v>1.015685278270768</v>
       </c>
       <c r="K21">
-        <v>1.028496108301818</v>
+        <v>1.029532541414686</v>
       </c>
       <c r="L21">
-        <v>1.009544647190175</v>
+        <v>1.011153336851963</v>
       </c>
       <c r="M21">
-        <v>1.035131764867246</v>
+        <v>1.036029800401601</v>
       </c>
       <c r="N21">
-        <v>1.00738902777601</v>
+        <v>1.011130776319124</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036376813845807</v>
+        <v>1.03708755250067</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031301792463845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032051466076293</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020031086405111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9798102727022143</v>
+        <v>0.9819404465296192</v>
       </c>
       <c r="D22">
-        <v>1.01111506933266</v>
+        <v>1.012583856824278</v>
       </c>
       <c r="E22">
-        <v>0.9908115903299868</v>
+        <v>0.9929128686299096</v>
       </c>
       <c r="F22">
-        <v>1.017943182824976</v>
+        <v>1.019181381054999</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041788718788423</v>
+        <v>1.042588784708063</v>
       </c>
       <c r="J22">
-        <v>1.01146292114194</v>
+        <v>1.013494277845681</v>
       </c>
       <c r="K22">
-        <v>1.02646950419859</v>
+        <v>1.027910080085908</v>
       </c>
       <c r="L22">
-        <v>1.006567295747401</v>
+        <v>1.008626042611416</v>
       </c>
       <c r="M22">
-        <v>1.033167369725052</v>
+        <v>1.034382193234373</v>
       </c>
       <c r="N22">
-        <v>1.006429284906333</v>
+        <v>1.010779334990055</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034822116133715</v>
+        <v>1.035783574488535</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029855318277725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030889463213782</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019656037110848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9819747069417797</v>
+        <v>0.9838348832802596</v>
       </c>
       <c r="D23">
-        <v>1.012509366681034</v>
+        <v>1.013742938214637</v>
       </c>
       <c r="E23">
-        <v>0.9927332694517684</v>
+        <v>0.9945693689353758</v>
       </c>
       <c r="F23">
-        <v>1.019304419569375</v>
+        <v>1.020357381113712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042259368136922</v>
+        <v>1.042945609430817</v>
       </c>
       <c r="J23">
-        <v>1.012847233318976</v>
+        <v>1.014623800522442</v>
       </c>
       <c r="K23">
-        <v>1.027529849208664</v>
+        <v>1.028740350574143</v>
       </c>
       <c r="L23">
-        <v>1.008133884286863</v>
+        <v>1.009933854969061</v>
       </c>
       <c r="M23">
-        <v>1.034198724910911</v>
+        <v>1.035232329919704</v>
       </c>
       <c r="N23">
-        <v>1.006930252988587</v>
+        <v>1.010911566144415</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035638370638485</v>
+        <v>1.036456404796402</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030595346035629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031465877058797</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01984355932259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9903134710342083</v>
+        <v>0.991254490022674</v>
       </c>
       <c r="D24">
-        <v>1.017907434980066</v>
+        <v>1.018329918532888</v>
       </c>
       <c r="E24">
-        <v>1.000157357870132</v>
+        <v>1.001088360548835</v>
       </c>
       <c r="F24">
-        <v>1.024576552743267</v>
+        <v>1.024995866226445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044063335912352</v>
+        <v>1.044362397935884</v>
       </c>
       <c r="J24">
-        <v>1.018189563112619</v>
+        <v>1.019093397681202</v>
       </c>
       <c r="K24">
-        <v>1.031627208360062</v>
+        <v>1.032042609139891</v>
       </c>
       <c r="L24">
-        <v>1.014181710691356</v>
+        <v>1.015096390276137</v>
       </c>
       <c r="M24">
-        <v>1.038185398023278</v>
+        <v>1.038597799075293</v>
       </c>
       <c r="N24">
-        <v>1.008867994507341</v>
+        <v>1.011652764756187</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038793569576796</v>
+        <v>1.039119958059554</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033484862297339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03379244208295</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020601831876663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.999581011040114</v>
+        <v>0.999807850824024</v>
       </c>
       <c r="D25">
-        <v>1.023933288982368</v>
+        <v>1.023681988097108</v>
       </c>
       <c r="E25">
-        <v>1.008441225237299</v>
+        <v>1.00866619273561</v>
       </c>
       <c r="F25">
-        <v>1.030479366717026</v>
+        <v>1.030386024209978</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046026137161428</v>
+        <v>1.04601424015679</v>
       </c>
       <c r="J25">
-        <v>1.024122484067074</v>
+        <v>1.024341683286115</v>
       </c>
       <c r="K25">
-        <v>1.036171094283984</v>
+        <v>1.035923467635596</v>
       </c>
       <c r="L25">
-        <v>1.020909900225721</v>
+        <v>1.021131450491034</v>
       </c>
       <c r="M25">
-        <v>1.042622262379759</v>
+        <v>1.042530262482857</v>
       </c>
       <c r="N25">
-        <v>1.011016417857153</v>
+        <v>1.013099619544487</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042305050000741</v>
+        <v>1.042232238428841</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036694761383469</v>
+        <v>1.036533218002279</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021509301998933</v>
       </c>
     </row>
   </sheetData>
